--- a/capiq_data/in_process_data/IQ295368.xlsx
+++ b/capiq_data/in_process_data/IQ295368.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64C751-FDD1-483B-925F-F632CA1FF6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2617B73-78B8-45ED-B400-763EEC8C44AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"66c25811-c7b8-4a48-b3de-5b08b5dcddce"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4f8ea434-5808-468a-8b7b-b979d8400910"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>133.9</v>
+        <v>62.125999999999998</v>
       </c>
       <c r="D2">
-        <v>512</v>
+        <v>208.429</v>
       </c>
       <c r="E2">
-        <v>224.6</v>
+        <v>108.251</v>
       </c>
       <c r="F2">
-        <v>353</v>
+        <v>161.334</v>
       </c>
       <c r="G2">
-        <v>4013.9</v>
+        <v>2505.069</v>
       </c>
       <c r="H2">
-        <v>5022.7</v>
+        <v>2603.8290000000002</v>
       </c>
       <c r="I2">
-        <v>33.799999999999997</v>
+        <v>14.346</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3485.7</v>
+        <v>1933.4090000000001</v>
       </c>
       <c r="O2">
-        <v>3573.2</v>
+        <v>1938.566</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>-39.700000000000003</v>
+        <v>-15.442</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="S2">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1449.5</v>
+        <v>665.26300000000003</v>
       </c>
       <c r="U2">
-        <v>233.2</v>
+        <v>32.561</v>
       </c>
       <c r="V2">
-        <v>124.9</v>
+        <v>57.35</v>
       </c>
       <c r="W2">
-        <v>-112.2</v>
+        <v>-33.548999999999999</v>
       </c>
       <c r="X2">
-        <v>-120.7</v>
+        <v>-28.25</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-75.099999999999994</v>
+        <v>-92.132000000000005</v>
       </c>
       <c r="AA2">
-        <v>133.9</v>
+        <v>62.125999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>130.6</v>
+        <v>66.352000000000004</v>
       </c>
       <c r="D3">
-        <v>531.29999999999995</v>
+        <v>225.85599999999999</v>
       </c>
       <c r="E3">
-        <v>141.6</v>
+        <v>89.897999999999996</v>
       </c>
       <c r="F3">
-        <v>364.7</v>
+        <v>171.48</v>
       </c>
       <c r="G3">
-        <v>4864.8</v>
+        <v>2564.7420000000002</v>
       </c>
       <c r="H3">
-        <v>5962.8</v>
+        <v>2671.1309999999999</v>
       </c>
       <c r="I3">
-        <v>35.700000000000003</v>
+        <v>14.116</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +975,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4390.5</v>
+        <v>1948.606</v>
       </c>
       <c r="O3">
-        <v>4494.6000000000004</v>
+        <v>1953.74</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.8</v>
+        <v>74.234999999999999</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="S3">
-        <v>12300</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1468.2</v>
+        <v>717.39099999999996</v>
       </c>
       <c r="U3">
-        <v>236</v>
+        <v>106.79600000000001</v>
       </c>
       <c r="V3">
-        <v>233.7</v>
+        <v>125.29900000000001</v>
       </c>
       <c r="W3">
-        <v>-112.2</v>
+        <v>-33.573999999999998</v>
       </c>
       <c r="X3">
-        <v>767</v>
+        <v>-30.946000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>7</v>
+        <v>13.871</v>
       </c>
       <c r="AA3">
-        <v>130.6</v>
+        <v>66.352000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>118.9</v>
+        <v>67.760999999999996</v>
       </c>
       <c r="D4">
-        <v>522.70000000000005</v>
+        <v>231.72</v>
       </c>
       <c r="E4">
-        <v>161.1</v>
+        <v>100.64</v>
       </c>
       <c r="F4">
-        <v>354.9</v>
+        <v>178.76599999999999</v>
       </c>
       <c r="G4">
-        <v>4257.8999999999996</v>
+        <v>2791.2730000000001</v>
       </c>
       <c r="H4">
-        <v>5393.8</v>
+        <v>2907.1959999999999</v>
       </c>
       <c r="I4">
-        <v>45.4</v>
+        <v>16.376999999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3788.3</v>
+        <v>2143.8420000000001</v>
       </c>
       <c r="O4">
-        <v>3897.6</v>
+        <v>2149.3539999999998</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-117</v>
+        <v>-61.012</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="S4">
-        <v>12400</v>
+        <v>7000</v>
       </c>
       <c r="T4">
-        <v>1496.2</v>
+        <v>757.84199999999998</v>
       </c>
       <c r="U4">
-        <v>119</v>
+        <v>45.783999999999999</v>
       </c>
       <c r="V4">
-        <v>162.4</v>
+        <v>48.698999999999998</v>
       </c>
       <c r="W4">
-        <v>-112.4</v>
+        <v>-33.655000000000001</v>
       </c>
       <c r="X4">
-        <v>-739.2</v>
+        <v>-30.535</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-153.5</v>
+        <v>-269.24299999999999</v>
       </c>
       <c r="AA4">
-        <v>118.9</v>
+        <v>67.760999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>148.9</v>
+        <v>70.192999999999998</v>
       </c>
       <c r="D5">
-        <v>563.1</v>
+        <v>234.81399999999999</v>
       </c>
       <c r="E5">
-        <v>197.9</v>
+        <v>112.682</v>
       </c>
       <c r="F5">
-        <v>399</v>
+        <v>181.05799999999999</v>
       </c>
       <c r="G5">
-        <v>3833.4</v>
+        <v>2676.8989999999999</v>
       </c>
       <c r="H5">
-        <v>4991.5</v>
+        <v>2792.2489999999998</v>
       </c>
       <c r="I5">
-        <v>38.5</v>
+        <v>13.135999999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3337.1</v>
+        <v>1970.8330000000001</v>
       </c>
       <c r="O5">
-        <v>3452.2</v>
+        <v>1976.5150000000001</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-5.9</v>
+        <v>13.541</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="S5">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1539.3</v>
+        <v>815.73400000000004</v>
       </c>
       <c r="U5">
-        <v>113.1</v>
+        <v>59.325000000000003</v>
       </c>
       <c r="V5">
-        <v>187.2</v>
+        <v>68.073999999999998</v>
       </c>
       <c r="W5">
-        <v>-112.4</v>
+        <v>-33.679000000000002</v>
       </c>
       <c r="X5">
-        <v>-591.1</v>
+        <v>-27.302</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>442.4</v>
+        <v>147.46600000000001</v>
       </c>
       <c r="AA5">
-        <v>148.9</v>
+        <v>70.192999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>140.4</v>
+        <v>68.697999999999993</v>
       </c>
       <c r="D6">
-        <v>545.70000000000005</v>
+        <v>232.988</v>
       </c>
       <c r="E6">
-        <v>221.5</v>
+        <v>112.911</v>
       </c>
       <c r="F6">
-        <v>383</v>
+        <v>178.25700000000001</v>
       </c>
       <c r="G6">
-        <v>3740</v>
+        <v>2647.44</v>
       </c>
       <c r="H6">
-        <v>4932</v>
+        <v>2772.54</v>
       </c>
       <c r="I6">
-        <v>54.9</v>
+        <v>12.179</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3248.2</v>
+        <v>1920.1020000000001</v>
       </c>
       <c r="O6">
-        <v>3373.3</v>
+        <v>1925.9680000000001</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>-17</v>
+        <v>36.965000000000003</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="S6">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1558.7</v>
+        <v>846.572</v>
       </c>
       <c r="U6">
-        <v>96.1</v>
+        <v>96.29</v>
       </c>
       <c r="V6">
-        <v>110</v>
+        <v>67.783000000000001</v>
       </c>
       <c r="W6">
-        <v>-116</v>
+        <v>-41.209000000000003</v>
       </c>
       <c r="X6">
-        <v>-163.80000000000001</v>
+        <v>-37.965000000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-482.4</v>
+        <v>61.591000000000001</v>
       </c>
       <c r="AA6">
-        <v>140.4</v>
+        <v>68.697999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>135.4</v>
+        <v>66.972999999999999</v>
       </c>
       <c r="D7">
-        <v>569.5</v>
+        <v>242.8</v>
       </c>
       <c r="E7">
-        <v>135.80000000000001</v>
+        <v>86.424000000000007</v>
       </c>
       <c r="F7">
-        <v>395.3</v>
+        <v>186.06100000000001</v>
       </c>
       <c r="G7">
-        <v>4872.2</v>
+        <v>3149.0880000000002</v>
       </c>
       <c r="H7">
-        <v>6094.9</v>
+        <v>3275.0349999999999</v>
       </c>
       <c r="I7">
-        <v>46</v>
+        <v>15.055999999999999</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4372.3999999999996</v>
+        <v>2385.3020000000001</v>
       </c>
       <c r="O7">
-        <v>4499.5</v>
+        <v>2390.7370000000001</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>50.4</v>
+        <v>63.305</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="S7">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1595.4</v>
+        <v>884.298</v>
       </c>
       <c r="U7">
-        <v>146.5</v>
+        <v>159.595</v>
       </c>
       <c r="V7">
-        <v>265.39999999999998</v>
+        <v>141.49100000000001</v>
       </c>
       <c r="W7">
-        <v>-115.9</v>
+        <v>-41.253</v>
       </c>
       <c r="X7">
-        <v>1011</v>
+        <v>-37.063000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-863.9</v>
+        <v>-460.47300000000001</v>
       </c>
       <c r="AA7">
-        <v>135.4</v>
+        <v>66.972999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>123.3</v>
+        <v>68.667000000000002</v>
       </c>
       <c r="D8">
-        <v>551.5</v>
+        <v>244.30799999999999</v>
       </c>
       <c r="E8">
-        <v>142.4</v>
+        <v>109.858</v>
       </c>
       <c r="F8">
-        <v>382.4</v>
+        <v>188.83699999999999</v>
       </c>
       <c r="G8">
-        <v>5075.8999999999996</v>
+        <v>2814.5740000000001</v>
       </c>
       <c r="H8">
-        <v>6479.6</v>
+        <v>2953.0749999999998</v>
       </c>
       <c r="I8">
-        <v>69.7</v>
+        <v>14.103999999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4745.7</v>
+        <v>2023.4059999999999</v>
       </c>
       <c r="O8">
-        <v>4875.1000000000004</v>
+        <v>2029.0940000000001</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-37.700000000000003</v>
+        <v>-97.697999999999993</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="S8">
-        <v>12400</v>
+        <v>7100</v>
       </c>
       <c r="T8">
-        <v>1604.5</v>
+        <v>923.98099999999999</v>
       </c>
       <c r="U8">
-        <v>108.8</v>
+        <v>61.896999999999998</v>
       </c>
       <c r="V8">
-        <v>144</v>
+        <v>26.472999999999999</v>
       </c>
       <c r="W8">
-        <v>-116.2</v>
+        <v>-41.34</v>
       </c>
       <c r="X8">
-        <v>271.39999999999998</v>
+        <v>-34.119999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>540.79999999999995</v>
+        <v>257.36</v>
       </c>
       <c r="AA8">
-        <v>123.3</v>
+        <v>68.667000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>153.1</v>
+        <v>75.94</v>
       </c>
       <c r="D9">
-        <v>578.20000000000005</v>
+        <v>252.67500000000001</v>
       </c>
       <c r="E9">
-        <v>153.1</v>
+        <v>112.17700000000001</v>
       </c>
       <c r="F9">
-        <v>414.7</v>
+        <v>196.21100000000001</v>
       </c>
       <c r="G9">
-        <v>4300.3999999999996</v>
+        <v>2915.5079999999998</v>
       </c>
       <c r="H9">
-        <v>5710.9</v>
+        <v>3069.1370000000002</v>
       </c>
       <c r="I9">
-        <v>40.700000000000003</v>
+        <v>14.956</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3919.7</v>
+        <v>2090.5219999999999</v>
       </c>
       <c r="O9">
-        <v>4055.5</v>
+        <v>2097</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>40.200000000000003</v>
+        <v>79.724999999999994</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37499</v>
       </c>
       <c r="S9">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1655.4</v>
+        <v>972.13699999999994</v>
       </c>
       <c r="U9">
-        <v>149</v>
+        <v>141.62200000000001</v>
       </c>
       <c r="V9">
-        <v>217.7</v>
+        <v>115.76</v>
       </c>
       <c r="W9">
-        <v>-116.4</v>
+        <v>-41.237000000000002</v>
       </c>
       <c r="X9">
-        <v>-949.4</v>
+        <v>-39.610999999999997</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-362.8</v>
+        <v>57.008000000000003</v>
       </c>
       <c r="AA9">
-        <v>153.1</v>
+        <v>75.94</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>147.9</v>
+        <v>74.650999999999996</v>
       </c>
       <c r="D10">
-        <v>569.4</v>
+        <v>268.80700000000002</v>
       </c>
       <c r="E10">
-        <v>169.3</v>
+        <v>122.521</v>
       </c>
       <c r="F10">
-        <v>405.8</v>
+        <v>205.02500000000001</v>
       </c>
       <c r="G10">
-        <v>4268.8</v>
+        <v>2847.7040000000002</v>
       </c>
       <c r="H10">
-        <v>5724.2</v>
+        <v>3317.018</v>
       </c>
       <c r="I10">
-        <v>43.6</v>
+        <v>19.023</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3888.6</v>
+        <v>2305.1889999999999</v>
       </c>
       <c r="O10">
-        <v>4026</v>
+        <v>2316.5520000000001</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-26.4</v>
+        <v>-43.106000000000002</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37590</v>
       </c>
       <c r="S10">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1698.2</v>
+        <v>1000.466</v>
       </c>
       <c r="U10">
-        <v>122.6</v>
+        <v>98.516000000000005</v>
       </c>
       <c r="V10">
-        <v>108.3</v>
+        <v>58.984000000000002</v>
       </c>
       <c r="W10">
-        <v>-120</v>
+        <v>-41.383000000000003</v>
       </c>
       <c r="X10">
-        <v>-100.4</v>
+        <v>-39.49</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>390.3</v>
+        <v>238.40199999999999</v>
       </c>
       <c r="AA10">
-        <v>147.9</v>
+        <v>74.650999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>144.5</v>
+        <v>71.521000000000001</v>
       </c>
       <c r="D11">
-        <v>593.29999999999995</v>
+        <v>287.78899999999999</v>
       </c>
       <c r="E11">
-        <v>125.1</v>
+        <v>98.838999999999999</v>
       </c>
       <c r="F11">
-        <v>422.1</v>
+        <v>218.78299999999999</v>
       </c>
       <c r="G11">
-        <v>6319.6</v>
+        <v>3204.4349999999999</v>
       </c>
       <c r="H11">
-        <v>7507.5</v>
+        <v>3675.174</v>
       </c>
       <c r="I11">
-        <v>47.6</v>
+        <v>21.626999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5756.5</v>
+        <v>2618.7150000000001</v>
       </c>
       <c r="O11">
-        <v>5901.6</v>
+        <v>2631.8629999999998</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-22.2</v>
+        <v>71.087000000000003</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="S11">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1605.9</v>
+        <v>1043.3109999999999</v>
       </c>
       <c r="U11">
-        <v>100.4</v>
+        <v>169.60300000000001</v>
       </c>
       <c r="V11">
-        <v>280.39999999999998</v>
+        <v>135.45599999999999</v>
       </c>
       <c r="W11">
-        <v>-240.3</v>
+        <v>-41.401000000000003</v>
       </c>
       <c r="X11">
-        <v>1610.6</v>
+        <v>-39.744999999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-1890.3</v>
+        <v>-394.99200000000002</v>
       </c>
       <c r="AA11">
-        <v>144.5</v>
+        <v>71.521000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>123.5</v>
+        <v>71.34</v>
       </c>
       <c r="D12">
-        <v>585.29999999999995</v>
+        <v>289.80799999999999</v>
       </c>
       <c r="E12">
-        <v>133.4</v>
+        <v>118.512</v>
       </c>
       <c r="F12">
-        <v>412.3</v>
+        <v>220.19800000000001</v>
       </c>
       <c r="G12">
-        <v>4832.6000000000004</v>
+        <v>3032.6419999999998</v>
       </c>
       <c r="H12">
-        <v>6163.7</v>
+        <v>3690.7829999999999</v>
       </c>
       <c r="I12">
-        <v>42.7</v>
+        <v>22.213000000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4268.2</v>
+        <v>2587.5250000000001</v>
       </c>
       <c r="O12">
-        <v>4390</v>
+        <v>2613.4119999999998</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6.9</v>
+        <v>-89.731999999999999</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37772</v>
       </c>
       <c r="S12">
-        <v>12400</v>
+        <v>8850</v>
       </c>
       <c r="T12">
-        <v>1773.7</v>
+        <v>1077.3710000000001</v>
       </c>
       <c r="U12">
-        <v>107.3</v>
+        <v>79.870999999999995</v>
       </c>
       <c r="V12">
-        <v>68.900000000000006</v>
+        <v>63.508000000000003</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-41.427</v>
       </c>
       <c r="X12">
-        <v>-1419.3</v>
+        <v>-38.432000000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1150.2</v>
+        <v>258.51400000000001</v>
       </c>
       <c r="AA12">
-        <v>123.5</v>
+        <v>71.34</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>162.80000000000001</v>
+        <v>80.343000000000004</v>
       </c>
       <c r="D13">
-        <v>613.1</v>
+        <v>309.25299999999999</v>
       </c>
       <c r="E13">
-        <v>154.69999999999999</v>
+        <v>128.16900000000001</v>
       </c>
       <c r="F13">
-        <v>443.2</v>
+        <v>237.58199999999999</v>
       </c>
       <c r="G13">
-        <v>4698.3</v>
+        <v>2956.6410000000001</v>
       </c>
       <c r="H13">
-        <v>6031.2</v>
+        <v>3612.3359999999998</v>
       </c>
       <c r="I13">
-        <v>40.4</v>
+        <v>21.106999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4150.3999999999996</v>
+        <v>2476.0889999999999</v>
       </c>
       <c r="O13">
-        <v>4282.8</v>
+        <v>2503.1089999999999</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4.3</v>
+        <v>51.948</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>37864</v>
       </c>
       <c r="S13">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1748.4</v>
+        <v>1109.2270000000001</v>
       </c>
       <c r="U13">
-        <v>111.6</v>
+        <v>131.81899999999999</v>
       </c>
       <c r="V13">
-        <v>266.7</v>
+        <v>112.426</v>
       </c>
       <c r="W13">
-        <v>-127.9</v>
+        <v>-41.454000000000001</v>
       </c>
       <c r="X13">
-        <v>-293.2</v>
+        <v>-36.619999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>323.60000000000002</v>
+        <v>109.38200000000001</v>
       </c>
       <c r="AA13">
-        <v>162.80000000000001</v>
+        <v>80.343000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>158.69999999999999</v>
+        <v>80.683999999999997</v>
       </c>
       <c r="D14">
-        <v>616.4</v>
+        <v>312.09899999999999</v>
       </c>
       <c r="E14">
-        <v>178.8</v>
+        <v>148.76</v>
       </c>
       <c r="F14">
-        <v>442.8</v>
+        <v>237.66399999999999</v>
       </c>
       <c r="G14">
-        <v>4663.8</v>
+        <v>2998.451</v>
       </c>
       <c r="H14">
-        <v>6019.4</v>
+        <v>3660.5079999999998</v>
       </c>
       <c r="I14">
-        <v>36.4</v>
+        <v>22.486999999999998</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4119.1000000000004</v>
+        <v>2477.5059999999999</v>
       </c>
       <c r="O14">
-        <v>4259</v>
+        <v>2505.9079999999999</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>101.4</v>
+        <v>2.419</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>37955</v>
       </c>
       <c r="S14">
-        <v>12600</v>
+        <v>9100</v>
       </c>
       <c r="T14">
-        <v>1760.4</v>
+        <v>1154.5999999999999</v>
       </c>
       <c r="U14">
-        <v>213</v>
+        <v>134.238</v>
       </c>
       <c r="V14">
-        <v>133.5</v>
+        <v>70.61</v>
       </c>
       <c r="W14">
-        <v>-127.8</v>
+        <v>-45.286000000000001</v>
       </c>
       <c r="X14">
-        <v>-195.6</v>
+        <v>-38.968000000000004</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>490</v>
+        <v>-15.377000000000001</v>
       </c>
       <c r="AA14">
-        <v>158.69999999999999</v>
+        <v>80.683999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>160.1</v>
+        <v>80.518000000000001</v>
       </c>
       <c r="D15">
-        <v>650.4</v>
+        <v>342.60599999999999</v>
       </c>
       <c r="E15">
-        <v>129.6</v>
+        <v>115.726</v>
       </c>
       <c r="F15">
-        <v>459.4</v>
+        <v>263.36700000000002</v>
       </c>
       <c r="G15">
-        <v>5719.3</v>
+        <v>3616.7339999999999</v>
       </c>
       <c r="H15">
-        <v>7069.4</v>
+        <v>4275.0619999999999</v>
       </c>
       <c r="I15">
-        <v>34.700000000000003</v>
+        <v>20.5</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5138.8999999999996</v>
+        <v>3052.7080000000001</v>
       </c>
       <c r="O15">
-        <v>5281.2</v>
+        <v>3079.55</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>58.3</v>
+        <v>74.382999999999996</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38046</v>
       </c>
       <c r="S15">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1788.2</v>
+        <v>1195.5119999999999</v>
       </c>
       <c r="U15">
-        <v>271.3</v>
+        <v>208.62100000000001</v>
       </c>
       <c r="V15">
-        <v>305.60000000000002</v>
+        <v>141.88999999999999</v>
       </c>
       <c r="W15">
-        <v>-127.7</v>
+        <v>-45.317999999999998</v>
       </c>
       <c r="X15">
-        <v>841.2</v>
+        <v>-42.975999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-259</v>
+        <v>-565.58199999999999</v>
       </c>
       <c r="AA15">
-        <v>160.1</v>
+        <v>80.518000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>145.9</v>
+        <v>61.405000000000001</v>
       </c>
       <c r="D16">
-        <v>639</v>
+        <v>330.38900000000001</v>
       </c>
       <c r="E16">
-        <v>149.4</v>
+        <v>135.76400000000001</v>
       </c>
       <c r="F16">
-        <v>441</v>
+        <v>252.26900000000001</v>
       </c>
       <c r="G16">
-        <v>5002.5</v>
+        <v>3280.4470000000001</v>
       </c>
       <c r="H16">
-        <v>6370.1</v>
+        <v>3950.203</v>
       </c>
       <c r="I16">
-        <v>48.8</v>
+        <v>22.588999999999999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4438.8999999999996</v>
+        <v>2721.9029999999998</v>
       </c>
       <c r="O16">
-        <v>4593.1000000000004</v>
+        <v>2750.23</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>-118.8</v>
+        <v>10.871</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>38138</v>
       </c>
       <c r="S16">
-        <v>12700</v>
+        <v>9400</v>
       </c>
       <c r="T16">
-        <v>1777</v>
+        <v>1199.973</v>
       </c>
       <c r="U16">
-        <v>152.5</v>
+        <v>219.49199999999999</v>
       </c>
       <c r="V16">
-        <v>175.1</v>
+        <v>64.950999999999993</v>
       </c>
       <c r="W16">
-        <v>-127.2</v>
+        <v>-45.35</v>
       </c>
       <c r="X16">
-        <v>-872</v>
+        <v>-40.573999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-324.5</v>
+        <v>356.74799999999999</v>
       </c>
       <c r="AA16">
-        <v>145.9</v>
+        <v>61.405000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>171.3</v>
+        <v>87.721000000000004</v>
       </c>
       <c r="D17">
-        <v>666.8</v>
+        <v>344.97500000000002</v>
       </c>
       <c r="E17">
-        <v>168.9</v>
+        <v>165.77</v>
       </c>
       <c r="F17">
-        <v>472.5</v>
+        <v>223.38300000000001</v>
       </c>
       <c r="G17">
-        <v>4872</v>
+        <v>3272.3420000000001</v>
       </c>
       <c r="H17">
-        <v>6286.6</v>
+        <v>3938.7550000000001</v>
       </c>
       <c r="I17">
-        <v>40.1</v>
+        <v>24.582999999999998</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2137,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4344</v>
+        <v>2650.741</v>
       </c>
       <c r="O17">
-        <v>4501</v>
+        <v>2683.3829999999998</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>310.10000000000002</v>
+        <v>-6.359</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>38230</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1785.6</v>
+        <v>1255.3720000000001</v>
       </c>
       <c r="U17">
-        <v>462.6</v>
+        <v>213.13300000000001</v>
       </c>
       <c r="V17">
-        <v>263.10000000000002</v>
+        <v>125.36799999999999</v>
       </c>
       <c r="W17">
-        <v>-138.30000000000001</v>
+        <v>-45.38</v>
       </c>
       <c r="X17">
-        <v>-311.89999999999998</v>
+        <v>-42.587000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>612.70000000000005</v>
+        <v>27.568000000000001</v>
       </c>
       <c r="AA17">
-        <v>171.3</v>
+        <v>87.721000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>173</v>
+        <v>86.864999999999995</v>
       </c>
       <c r="D18">
-        <v>676.3</v>
+        <v>347.28500000000003</v>
       </c>
       <c r="E18">
-        <v>205.6</v>
+        <v>182.73</v>
       </c>
       <c r="F18">
-        <v>477.2</v>
+        <v>224.43299999999999</v>
       </c>
       <c r="G18">
-        <v>4859.8999999999996</v>
+        <v>3370.0410000000002</v>
       </c>
       <c r="H18">
-        <v>6274.5</v>
+        <v>4035.0970000000002</v>
       </c>
       <c r="I18">
-        <v>39.799999999999997</v>
+        <v>25.437999999999999</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4279.3</v>
+        <v>2707.413</v>
       </c>
       <c r="O18">
-        <v>4440.2</v>
+        <v>2745.3620000000001</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>-322.2</v>
+        <v>18.774000000000001</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>38321</v>
       </c>
       <c r="S18">
-        <v>13000</v>
+        <v>9700</v>
       </c>
       <c r="T18">
-        <v>1834.3</v>
+        <v>1289.7349999999999</v>
       </c>
       <c r="U18">
-        <v>140.4</v>
+        <v>231.90700000000001</v>
       </c>
       <c r="V18">
-        <v>141.6</v>
+        <v>75.097999999999999</v>
       </c>
       <c r="W18">
-        <v>-137.9</v>
+        <v>-49.180999999999997</v>
       </c>
       <c r="X18">
-        <v>-159.6</v>
+        <v>-47.204000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-539.5</v>
+        <v>293.57299999999998</v>
       </c>
       <c r="AA18">
-        <v>173</v>
+        <v>86.864999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>169.4</v>
+        <v>92.781999999999996</v>
       </c>
       <c r="D19">
-        <v>704.3</v>
+        <v>373.86099999999999</v>
       </c>
       <c r="E19">
-        <v>148.4</v>
+        <v>146.827</v>
       </c>
       <c r="F19">
-        <v>493.3</v>
+        <v>244.01400000000001</v>
       </c>
       <c r="G19">
-        <v>5957.4</v>
+        <v>3965.1129999999998</v>
       </c>
       <c r="H19">
-        <v>7344.2</v>
+        <v>4629.165</v>
       </c>
       <c r="I19">
-        <v>40.1</v>
+        <v>23.385000000000002</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2303,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5348</v>
+        <v>3256.6930000000002</v>
       </c>
       <c r="O19">
-        <v>5472.2</v>
+        <v>3297.7739999999999</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>124.9</v>
+        <v>57.720999999999997</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>38411</v>
       </c>
       <c r="S19">
-        <v>13100</v>
+        <v>9900</v>
       </c>
       <c r="T19">
-        <v>1872</v>
+        <v>1331.3910000000001</v>
       </c>
       <c r="U19">
-        <v>265.3</v>
+        <v>279.11200000000002</v>
       </c>
       <c r="V19">
-        <v>288.10000000000002</v>
+        <v>165.98400000000001</v>
       </c>
       <c r="W19">
-        <v>-138.19999999999999</v>
+        <v>-49.195999999999998</v>
       </c>
       <c r="X19">
-        <v>918.7</v>
+        <v>-47.384999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>79.5</v>
+        <v>-949.48</v>
       </c>
       <c r="AA19">
-        <v>169.4</v>
+        <v>92.781999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>161.19999999999999</v>
+        <v>101.48099999999999</v>
       </c>
       <c r="D20">
-        <v>692.2</v>
+        <v>379.02199999999999</v>
       </c>
       <c r="E20">
-        <v>176.6</v>
+        <v>161.84899999999999</v>
       </c>
       <c r="F20">
-        <v>488.6</v>
+        <v>254.28800000000001</v>
       </c>
       <c r="G20">
-        <v>5088.2</v>
+        <v>3522.0070000000001</v>
       </c>
       <c r="H20">
-        <v>6467.5</v>
+        <v>4617.4179999999997</v>
       </c>
       <c r="I20">
-        <v>51.7</v>
+        <v>30.385000000000002</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4573</v>
+        <v>3180.3389999999999</v>
       </c>
       <c r="O20">
-        <v>4682</v>
+        <v>3231.7420000000002</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>-95.3</v>
+        <v>-35.048000000000002</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>38503</v>
       </c>
       <c r="S20">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="T20">
-        <v>1785.5</v>
+        <v>1385.6759999999999</v>
       </c>
       <c r="U20">
-        <v>170</v>
+        <v>77.668999999999997</v>
       </c>
       <c r="V20">
-        <v>202.4</v>
+        <v>100.17400000000001</v>
       </c>
       <c r="W20">
-        <v>-137.4</v>
+        <v>-49.219000000000001</v>
       </c>
       <c r="X20">
-        <v>-1039.9000000000001</v>
+        <v>-46.774000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-453.6</v>
+        <v>259.47199999999998</v>
       </c>
       <c r="AA20">
-        <v>161.19999999999999</v>
+        <v>101.48099999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>209.1</v>
+        <v>115.02800000000001</v>
       </c>
       <c r="D21">
-        <v>723</v>
+        <v>403.71499999999997</v>
       </c>
       <c r="E21">
-        <v>206.6</v>
+        <v>189.31700000000001</v>
       </c>
       <c r="F21">
-        <v>517.29999999999995</v>
+        <v>270.29399999999998</v>
       </c>
       <c r="G21">
-        <v>4588.2</v>
+        <v>3401.2289999999998</v>
       </c>
       <c r="H21">
-        <v>5983</v>
+        <v>4095.8420000000001</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>28.978000000000002</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4046.4</v>
+        <v>2583.502</v>
       </c>
       <c r="O21">
-        <v>4192.2</v>
+        <v>2637.9090000000001</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>285.89999999999998</v>
+        <v>121.70399999999999</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="S21">
-        <v>12900</v>
+        <v>10300</v>
       </c>
       <c r="T21">
-        <v>1790.8</v>
+        <v>1457.933</v>
       </c>
       <c r="U21">
-        <v>455.9</v>
+        <v>337.32100000000003</v>
       </c>
       <c r="V21">
-        <v>278.3</v>
+        <v>161.33099999999999</v>
       </c>
       <c r="W21">
-        <v>-151.9</v>
+        <v>-49.262</v>
       </c>
       <c r="X21">
-        <v>-752.3</v>
+        <v>-43.902999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>683.9</v>
+        <v>416.57499999999999</v>
       </c>
       <c r="AA21">
-        <v>209.1</v>
+        <v>115.02800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>189.2</v>
+        <v>112.61199999999999</v>
       </c>
       <c r="D22">
-        <v>722.4</v>
+        <v>399.815</v>
       </c>
       <c r="E22">
-        <v>241.1</v>
+        <v>210.40100000000001</v>
       </c>
       <c r="F22">
-        <v>517.20000000000005</v>
+        <v>264.46499999999997</v>
       </c>
       <c r="G22">
-        <v>4602.5</v>
+        <v>3422.2809999999999</v>
       </c>
       <c r="H22">
-        <v>6016.8</v>
+        <v>4120.0280000000002</v>
       </c>
       <c r="I22">
-        <v>47.4</v>
+        <v>25.346</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4009.9</v>
+        <v>2542.4340000000002</v>
       </c>
       <c r="O22">
-        <v>4158.5</v>
+        <v>2598.91</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>-43.6</v>
+        <v>-154.66800000000001</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="S22">
-        <v>13100</v>
+        <v>10600</v>
       </c>
       <c r="T22">
-        <v>1858.3</v>
+        <v>1521.1179999999999</v>
       </c>
       <c r="U22">
-        <v>412.3</v>
+        <v>315.81599999999997</v>
       </c>
       <c r="V22">
-        <v>141.6</v>
+        <v>72.554000000000002</v>
       </c>
       <c r="W22">
-        <v>-151.69999999999999</v>
+        <v>-60.698</v>
       </c>
       <c r="X22">
-        <v>-174</v>
+        <v>-48.2</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-23.7</v>
+        <v>-155.804</v>
       </c>
       <c r="AA22">
-        <v>189.2</v>
+        <v>112.61199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>180.4</v>
+        <v>114.53400000000001</v>
       </c>
       <c r="D23">
-        <v>752.6</v>
+        <v>430.58600000000001</v>
       </c>
       <c r="E23">
-        <v>353.4</v>
+        <v>155.321</v>
       </c>
       <c r="F23">
-        <v>526.70000000000005</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="G23">
-        <v>5503.6</v>
+        <v>5020.201</v>
       </c>
       <c r="H23">
-        <v>7067.5</v>
+        <v>5719.5950000000003</v>
       </c>
       <c r="I23">
-        <v>55.8</v>
+        <v>28.004999999999999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2635,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5039.2</v>
+        <v>4080.7510000000002</v>
       </c>
       <c r="O23">
-        <v>5193.3999999999996</v>
+        <v>4139.0050000000001</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-159.19999999999999</v>
+        <v>91.013000000000005</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="S23">
-        <v>13400</v>
+        <v>10700</v>
       </c>
       <c r="T23">
-        <v>1874.1</v>
+        <v>1580.59</v>
       </c>
       <c r="U23">
-        <v>253.1</v>
+        <v>135.71799999999999</v>
       </c>
       <c r="V23">
-        <v>371.3</v>
+        <v>223.99299999999999</v>
       </c>
       <c r="W23">
-        <v>-151.4</v>
+        <v>-60.750999999999998</v>
       </c>
       <c r="X23">
-        <v>781.8</v>
+        <v>-57.034999999999997</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-57.5</v>
+        <v>-1328.76</v>
       </c>
       <c r="AA23">
-        <v>180.4</v>
+        <v>114.53400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>178.1</v>
+        <v>122.74</v>
       </c>
       <c r="D24">
-        <v>753.9</v>
+        <v>440.48</v>
       </c>
       <c r="E24">
-        <v>408.6</v>
+        <v>189.83500000000001</v>
       </c>
       <c r="F24">
-        <v>533.6</v>
+        <v>294.48200000000003</v>
       </c>
       <c r="G24">
-        <v>4863.6000000000004</v>
+        <v>4444.3010000000004</v>
       </c>
       <c r="H24">
-        <v>6440.8</v>
+        <v>5549.3019999999997</v>
       </c>
       <c r="I24">
-        <v>56.7</v>
+        <v>46.667999999999999</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4365.8999999999996</v>
+        <v>3838.3719999999998</v>
       </c>
       <c r="O24">
-        <v>4529.1000000000004</v>
+        <v>3894.4589999999998</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>-121.6</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="S24">
-        <v>13500</v>
+        <v>10900</v>
       </c>
       <c r="T24">
-        <v>1911.7</v>
+        <v>1654.8430000000001</v>
       </c>
       <c r="U24">
-        <v>131.5</v>
+        <v>137.423</v>
       </c>
       <c r="V24">
-        <v>227</v>
+        <v>111.355</v>
       </c>
       <c r="W24">
-        <v>-151.5</v>
+        <v>-60.843000000000004</v>
       </c>
       <c r="X24">
-        <v>-849.1</v>
+        <v>-50.290999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1190.5999999999999</v>
+        <v>223.20599999999999</v>
       </c>
       <c r="AA24">
-        <v>178.1</v>
+        <v>122.74</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>217.4</v>
+        <v>135.08099999999999</v>
       </c>
       <c r="D25">
-        <v>785.5</v>
+        <v>459.37400000000002</v>
       </c>
       <c r="E25">
-        <v>485.6</v>
+        <v>194.89099999999999</v>
       </c>
       <c r="F25">
-        <v>560.4</v>
+        <v>311.29000000000002</v>
       </c>
       <c r="G25">
-        <v>4521</v>
+        <v>4711.2489999999998</v>
       </c>
       <c r="H25">
-        <v>6096.9</v>
+        <v>5864.74</v>
       </c>
       <c r="I25">
-        <v>51.2</v>
+        <v>47.067</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3913.2</v>
+        <v>4064.8449999999998</v>
       </c>
       <c r="O25">
-        <v>4108.8</v>
+        <v>4119.1660000000002</v>
       </c>
       <c r="P25">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-1.5</v>
+        <v>206.488</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="S25">
-        <v>13700</v>
+        <v>11200</v>
       </c>
       <c r="T25">
-        <v>1988.1</v>
+        <v>1745.5740000000001</v>
       </c>
       <c r="U25">
-        <v>130</v>
+        <v>343.911</v>
       </c>
       <c r="V25">
-        <v>294.7</v>
+        <v>199.91499999999999</v>
       </c>
       <c r="W25">
-        <v>-166.3</v>
+        <v>-60.875999999999998</v>
       </c>
       <c r="X25">
-        <v>-676.5</v>
+        <v>-57.648000000000003</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>143.30000000000001</v>
+        <v>1188.443</v>
       </c>
       <c r="AA25">
-        <v>217.4</v>
+        <v>135.08099999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>202.1</v>
+        <v>132.666</v>
       </c>
       <c r="D26">
-        <v>771.4</v>
+        <v>454.95499999999998</v>
       </c>
       <c r="E26">
-        <v>528.9</v>
+        <v>215.56299999999999</v>
       </c>
       <c r="F26">
-        <v>545.1</v>
+        <v>304.08499999999998</v>
       </c>
       <c r="G26">
-        <v>4215.7</v>
+        <v>4586.0169999999998</v>
       </c>
       <c r="H26">
-        <v>5776.1</v>
+        <v>5871.2389999999996</v>
       </c>
       <c r="I26">
-        <v>48.6</v>
+        <v>39.908000000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>103.1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3784.1</v>
+        <v>3985.453</v>
       </c>
       <c r="O26">
-        <v>3960.5</v>
+        <v>4043.6320000000001</v>
       </c>
       <c r="P26">
-        <v>103.1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>-214.642</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="S26">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="T26">
-        <v>1815.6</v>
+        <v>1827.607</v>
       </c>
       <c r="U26">
-        <v>165</v>
+        <v>129.26900000000001</v>
       </c>
       <c r="V26">
-        <v>118.7</v>
+        <v>78.908000000000001</v>
       </c>
       <c r="W26">
-        <v>-165.2</v>
+        <v>-80.016000000000005</v>
       </c>
       <c r="X26">
-        <v>-401.3</v>
+        <v>-62.07</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>391.1</v>
+        <v>-1280.5619999999999</v>
       </c>
       <c r="AA26">
-        <v>202.1</v>
+        <v>132.666</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>202.5</v>
+        <v>126.6</v>
       </c>
       <c r="D27">
-        <v>795.8</v>
+        <v>485.28699999999998</v>
       </c>
       <c r="E27">
-        <v>429.9</v>
+        <v>163.673</v>
       </c>
       <c r="F27">
-        <v>559</v>
+        <v>326.74400000000003</v>
       </c>
       <c r="G27">
-        <v>5751.8</v>
+        <v>4443.6409999999996</v>
       </c>
       <c r="H27">
-        <v>7310.3</v>
+        <v>5771.8140000000003</v>
       </c>
       <c r="I27">
-        <v>55.9</v>
+        <v>55.954000000000001</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,75 +2967,75 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>5273.7</v>
+        <v>3811.4839999999999</v>
       </c>
       <c r="O27">
-        <v>5413.6</v>
+        <v>3868.7779999999998</v>
       </c>
       <c r="P27">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>24.9</v>
+        <v>-48.347999999999999</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="S27">
-        <v>13900</v>
+        <v>11500</v>
       </c>
       <c r="T27">
-        <v>1896.7</v>
+        <v>1903.0360000000001</v>
       </c>
       <c r="U27">
-        <v>189.9</v>
+        <v>80.921000000000006</v>
       </c>
       <c r="V27">
-        <v>355.9</v>
+        <v>253.423</v>
       </c>
       <c r="W27">
-        <v>-165.4</v>
+        <v>-80.171999999999997</v>
       </c>
       <c r="X27">
-        <v>1314</v>
+        <v>-56.055999999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-946.5</v>
+        <v>-508.51799999999997</v>
       </c>
       <c r="AA27">
-        <v>202.5</v>
+        <v>126.6</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>195.3</v>
+        <v>121.1</v>
       </c>
       <c r="D28">
-        <v>798.6</v>
+        <v>487.34800000000001</v>
       </c>
       <c r="E28">
-        <v>507.5</v>
+        <v>186.273</v>
       </c>
       <c r="F28">
-        <v>567.20000000000005</v>
+        <v>329.36599999999999</v>
       </c>
       <c r="G28">
-        <v>5272</v>
+        <v>4861.3190000000004</v>
       </c>
       <c r="H28">
-        <v>6833.7</v>
+        <v>6246.5190000000002</v>
       </c>
       <c r="I28">
-        <v>57.2</v>
+        <v>46.960999999999999</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4725.1000000000004</v>
+        <v>4237.47</v>
       </c>
       <c r="O28">
-        <v>4878.3999999999996</v>
+        <v>4294.2709999999997</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>-5.3</v>
+        <v>-1.5680000000000001</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="S28">
-        <v>13700</v>
+        <v>11700</v>
       </c>
       <c r="T28">
-        <v>1955.3</v>
+        <v>1952.248</v>
       </c>
       <c r="U28">
-        <v>184.6</v>
+        <v>79.352999999999994</v>
       </c>
       <c r="V28">
-        <v>191.1</v>
+        <v>98.980999999999995</v>
       </c>
       <c r="W28">
-        <v>-165.4</v>
+        <v>-80.248999999999995</v>
       </c>
       <c r="X28">
-        <v>-718.9</v>
+        <v>303.51400000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-147.19999999999999</v>
+        <v>-536.71600000000001</v>
       </c>
       <c r="AA28">
-        <v>195.3</v>
+        <v>121.1</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>210.4</v>
+        <v>151.07499999999999</v>
       </c>
       <c r="D29">
-        <v>792.9</v>
+        <v>507.13</v>
       </c>
       <c r="E29">
-        <v>538.6</v>
+        <v>210.982</v>
       </c>
       <c r="F29">
-        <v>560.9</v>
+        <v>347.815</v>
       </c>
       <c r="G29">
-        <v>5973.5</v>
+        <v>4259.8609999999999</v>
       </c>
       <c r="H29">
-        <v>7619.5</v>
+        <v>5557.9369999999999</v>
       </c>
       <c r="I29">
-        <v>74.599999999999994</v>
+        <v>91.807000000000002</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>5455.7</v>
+        <v>3845.49</v>
       </c>
       <c r="O29">
-        <v>5675.7</v>
+        <v>3913.8150000000001</v>
       </c>
       <c r="P29">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>49.8</v>
+        <v>31.260999999999999</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="S29">
-        <v>13700</v>
+        <v>11900</v>
       </c>
       <c r="T29">
-        <v>1943.8</v>
+        <v>1644.1220000000001</v>
       </c>
       <c r="U29">
-        <v>234.4</v>
+        <v>110.614</v>
       </c>
       <c r="V29">
-        <v>343.6</v>
+        <v>253.21299999999999</v>
       </c>
       <c r="W29">
-        <v>-179.1</v>
+        <v>-114.988</v>
       </c>
       <c r="X29">
-        <v>417.2</v>
+        <v>-916.65899999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>245.3</v>
+        <v>1080.298</v>
       </c>
       <c r="AA29">
-        <v>210.4</v>
+        <v>151.07499999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>198.8</v>
+        <v>147.11199999999999</v>
       </c>
       <c r="D30">
-        <v>803</v>
+        <v>507.79300000000001</v>
       </c>
       <c r="E30">
-        <v>595.20000000000005</v>
+        <v>213.78700000000001</v>
       </c>
       <c r="F30">
-        <v>554.4</v>
+        <v>345.34100000000001</v>
       </c>
       <c r="G30">
-        <v>5993</v>
+        <v>4229.6040000000003</v>
       </c>
       <c r="H30">
-        <v>7684.6</v>
+        <v>5026.3549999999996</v>
       </c>
       <c r="I30">
-        <v>58.4</v>
+        <v>63.359000000000002</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>133.4</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>5501.7</v>
+        <v>3711.74</v>
       </c>
       <c r="O30">
-        <v>5715.7</v>
+        <v>3781.944</v>
       </c>
       <c r="P30">
-        <v>133.4</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>22.8</v>
+        <v>-57.688000000000002</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="S30">
-        <v>14000</v>
+        <v>12200</v>
       </c>
       <c r="T30">
-        <v>1968.9</v>
+        <v>1244.4110000000001</v>
       </c>
       <c r="U30">
-        <v>257.2</v>
+        <v>52.926000000000002</v>
       </c>
       <c r="V30">
-        <v>175.8</v>
+        <v>105.03100000000001</v>
       </c>
       <c r="W30">
-        <v>-179.8</v>
+        <v>-110.809</v>
       </c>
       <c r="X30">
-        <v>-112.9</v>
+        <v>-637.05899999999997</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>139.1</v>
+        <v>121.21599999999999</v>
       </c>
       <c r="AA30">
-        <v>198.8</v>
+        <v>147.11199999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>367.2</v>
+        <v>142.47399999999999</v>
       </c>
       <c r="D31">
-        <v>936.1</v>
+        <v>532.17200000000003</v>
       </c>
       <c r="E31">
-        <v>550.5</v>
+        <v>158.042</v>
       </c>
       <c r="F31">
-        <v>663.9</v>
+        <v>361.17700000000002</v>
       </c>
       <c r="G31">
-        <v>5048.7</v>
+        <v>5048.2740000000003</v>
       </c>
       <c r="H31">
-        <v>6842.8</v>
+        <v>5872.0150000000003</v>
       </c>
       <c r="I31">
-        <v>71.900000000000006</v>
+        <v>34.456000000000003</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>57.7</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4623.7</v>
+        <v>4647.8500000000004</v>
       </c>
       <c r="O31">
-        <v>4797.3</v>
+        <v>4720.0240000000003</v>
       </c>
       <c r="P31">
-        <v>57.7</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>475.8</v>
+        <v>106.864</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="S31">
-        <v>14000</v>
+        <v>12300</v>
       </c>
       <c r="T31">
-        <v>2045.5</v>
+        <v>1151.991</v>
       </c>
       <c r="U31">
-        <v>323.89999999999998</v>
+        <v>159.79</v>
       </c>
       <c r="V31">
-        <v>469.5</v>
+        <v>232.131</v>
       </c>
       <c r="W31">
-        <v>-179.8</v>
+        <v>-108.163</v>
       </c>
       <c r="X31">
-        <v>-1178.3</v>
+        <v>695.10900000000004</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>356.3</v>
+        <v>68.590999999999994</v>
       </c>
       <c r="AA31">
-        <v>367.2</v>
+        <v>142.47399999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>217.7</v>
+        <v>135.48400000000001</v>
       </c>
       <c r="D32">
-        <v>845.7</v>
+        <v>519.22799999999995</v>
       </c>
       <c r="E32">
-        <v>492.4</v>
+        <v>184.68600000000001</v>
       </c>
       <c r="F32">
-        <v>580.29999999999995</v>
+        <v>351.255</v>
       </c>
       <c r="G32">
-        <v>5893.6</v>
+        <v>4465.9110000000001</v>
       </c>
       <c r="H32">
-        <v>7915.4</v>
+        <v>5309.7910000000002</v>
       </c>
       <c r="I32">
-        <v>73.7</v>
+        <v>40.250999999999998</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5296.7</v>
+        <v>4037.2719999999999</v>
       </c>
       <c r="O32">
-        <v>5558.6</v>
+        <v>4113.1490000000003</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1302.7</v>
+        <v>4.4470000000000001</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>39599</v>
       </c>
       <c r="S32">
-        <v>14300</v>
+        <v>12200</v>
       </c>
       <c r="T32">
-        <v>2356.8000000000002</v>
+        <v>1196.6420000000001</v>
       </c>
       <c r="U32">
-        <v>358.2</v>
+        <v>164.23699999999999</v>
       </c>
       <c r="V32">
-        <v>287.5</v>
+        <v>134.29400000000001</v>
       </c>
       <c r="W32">
-        <v>-201</v>
+        <v>-108.18600000000001</v>
       </c>
       <c r="X32">
-        <v>450.2</v>
+        <v>-714.34100000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>632</v>
+        <v>378.91</v>
       </c>
       <c r="AA32">
-        <v>217.7</v>
+        <v>135.48400000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>243.6</v>
+        <v>148.709</v>
       </c>
       <c r="D33">
-        <v>862.8</v>
+        <v>534.08500000000004</v>
       </c>
       <c r="E33">
-        <v>535.20000000000005</v>
+        <v>197.12799999999999</v>
       </c>
       <c r="F33">
-        <v>597.29999999999995</v>
+        <v>365.61700000000002</v>
       </c>
       <c r="G33">
-        <v>5076.2</v>
+        <v>4375.3999999999996</v>
       </c>
       <c r="H33">
-        <v>7050</v>
+        <v>5229.6099999999997</v>
       </c>
       <c r="I33">
-        <v>62.6</v>
+        <v>35.040999999999997</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4397.3999999999996</v>
+        <v>3903.6819999999998</v>
       </c>
       <c r="O33">
-        <v>4663</v>
+        <v>3979.4850000000001</v>
       </c>
       <c r="P33">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-680.6</v>
+        <v>-102.655</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39691</v>
       </c>
       <c r="S33">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="T33">
-        <v>2387</v>
+        <v>1250.125</v>
       </c>
       <c r="U33">
-        <v>440.1</v>
+        <v>61.582000000000001</v>
       </c>
       <c r="V33">
-        <v>273.7</v>
+        <v>214.55099999999999</v>
       </c>
       <c r="W33">
-        <v>-201.4</v>
+        <v>-111.904</v>
       </c>
       <c r="X33">
-        <v>-1110.3</v>
+        <v>-267.33300000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>181.2</v>
+        <v>-631.97799999999995</v>
       </c>
       <c r="AA33">
-        <v>243.6</v>
+        <v>148.709</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>235.8</v>
+        <v>140.24199999999999</v>
       </c>
       <c r="D34">
-        <v>858.9</v>
+        <v>524.16</v>
       </c>
       <c r="E34">
-        <v>562.6</v>
+        <v>219.43799999999999</v>
       </c>
       <c r="F34">
-        <v>594</v>
+        <v>353.48500000000001</v>
       </c>
       <c r="G34">
-        <v>5290</v>
+        <v>4220.3540000000003</v>
       </c>
       <c r="H34">
-        <v>7002.4</v>
+        <v>5111.8599999999997</v>
       </c>
       <c r="I34">
-        <v>70.599999999999994</v>
+        <v>38.857999999999997</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4306.8</v>
+        <v>3751.5079999999998</v>
       </c>
       <c r="O34">
-        <v>4577.8999999999996</v>
+        <v>3827.1370000000002</v>
       </c>
       <c r="P34">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-152.1</v>
+        <v>269.05099999999999</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39782</v>
       </c>
       <c r="S34">
-        <v>14600</v>
+        <v>12700</v>
       </c>
       <c r="T34">
-        <v>2424.5</v>
+        <v>1284.723</v>
       </c>
       <c r="U34">
-        <v>510.6</v>
+        <v>330.63299999999998</v>
       </c>
       <c r="V34">
-        <v>223.5</v>
+        <v>113.834</v>
       </c>
       <c r="W34">
-        <v>-201.3</v>
+        <v>-111.93600000000001</v>
       </c>
       <c r="X34">
-        <v>-273.3</v>
+        <v>-229.852</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-65.7</v>
+        <v>1840.5619999999999</v>
       </c>
       <c r="AA34">
-        <v>235.8</v>
+        <v>140.24199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>324.60000000000002</v>
+        <v>130.79</v>
       </c>
       <c r="D35">
-        <v>1070.4000000000001</v>
+        <v>528.58100000000002</v>
       </c>
       <c r="E35">
-        <v>821</v>
+        <v>165.154</v>
       </c>
       <c r="F35">
-        <v>745.1</v>
+        <v>354.07799999999997</v>
       </c>
       <c r="G35">
-        <v>7292</v>
+        <v>4872.8869999999997</v>
       </c>
       <c r="H35">
-        <v>10363</v>
+        <v>5775.4679999999998</v>
       </c>
       <c r="I35">
-        <v>73.900000000000006</v>
+        <v>37.484000000000002</v>
       </c>
       <c r="J35">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>6549.7</v>
+        <v>4365.6469999999999</v>
       </c>
       <c r="O35">
-        <v>7765</v>
+        <v>4444.3190000000004</v>
       </c>
       <c r="P35">
-        <v>853.6</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2237.6999999999998</v>
+        <v>97.774000000000001</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>39872</v>
       </c>
       <c r="S35">
-        <v>15700</v>
+        <v>12600</v>
       </c>
       <c r="T35">
-        <v>2598</v>
+        <v>1331.1489999999999</v>
       </c>
       <c r="U35">
-        <v>696.4</v>
+        <v>428.40699999999998</v>
       </c>
       <c r="V35">
-        <v>525.6</v>
+        <v>234.93799999999999</v>
       </c>
       <c r="W35">
-        <v>-201.2</v>
+        <v>-111.93899999999999</v>
       </c>
       <c r="X35">
-        <v>2304.4</v>
+        <v>473.10500000000002</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>421.5</v>
+        <v>74.236000000000004</v>
       </c>
       <c r="AA35">
-        <v>324.60000000000002</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>230.4</v>
+        <v>113.804</v>
       </c>
       <c r="D36">
-        <v>980.4</v>
+        <v>495.93299999999999</v>
       </c>
       <c r="E36">
-        <v>826.8</v>
+        <v>177.958</v>
       </c>
       <c r="F36">
-        <v>658.3</v>
+        <v>329.06099999999998</v>
       </c>
       <c r="G36">
-        <v>5677.7</v>
+        <v>4239.826</v>
       </c>
       <c r="H36">
-        <v>8676</v>
+        <v>5127.415</v>
       </c>
       <c r="I36">
-        <v>75.900000000000006</v>
+        <v>37.334000000000003</v>
       </c>
       <c r="J36">
-        <v>796.4</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4845</v>
+        <v>3701.893</v>
       </c>
       <c r="O36">
-        <v>6056.5</v>
+        <v>3785.9369999999999</v>
       </c>
       <c r="P36">
-        <v>796.4</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-2770.3</v>
+        <v>44.362000000000002</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>39964</v>
       </c>
       <c r="S36">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="T36">
-        <v>2619.5</v>
+        <v>1341.4780000000001</v>
       </c>
       <c r="U36">
-        <v>673.6</v>
+        <v>472.76900000000001</v>
       </c>
       <c r="V36">
-        <v>248.7</v>
+        <v>125.44799999999999</v>
       </c>
       <c r="W36">
-        <v>-222.9</v>
+        <v>-111.953</v>
       </c>
       <c r="X36">
-        <v>-1929.3</v>
+        <v>-760.62099999999998</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-1044</v>
+        <v>309.97699999999998</v>
       </c>
       <c r="AA36">
-        <v>230.4</v>
+        <v>113.804</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>264.2</v>
+        <v>123.6</v>
       </c>
       <c r="D37">
-        <v>992</v>
+        <v>500.2</v>
       </c>
       <c r="E37">
-        <v>834.3</v>
+        <v>201.33</v>
       </c>
       <c r="F37">
-        <v>666.6</v>
+        <v>336.9</v>
       </c>
       <c r="G37">
-        <v>5555.9</v>
+        <v>3603.8690000000001</v>
       </c>
       <c r="H37">
-        <v>8638.2000000000007</v>
+        <v>4707.7430000000004</v>
       </c>
       <c r="I37">
-        <v>61.7</v>
+        <v>33.301000000000002</v>
       </c>
       <c r="J37">
-        <v>796.5</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4823.5</v>
+        <v>3259.654</v>
       </c>
       <c r="O37">
-        <v>6118.9</v>
+        <v>3342.8809999999999</v>
       </c>
       <c r="P37">
-        <v>983.8</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>426.3</v>
+        <v>-157.5</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>40056</v>
       </c>
       <c r="S37">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="T37">
-        <v>2519.3000000000002</v>
+        <v>1364.8620000000001</v>
       </c>
       <c r="U37">
-        <v>586.4</v>
+        <v>315.32299999999998</v>
       </c>
       <c r="V37">
-        <v>294.8</v>
+        <v>186.6</v>
       </c>
       <c r="W37">
-        <v>-222</v>
+        <v>-112.1</v>
       </c>
       <c r="X37">
-        <v>-413.2</v>
+        <v>-591.6</v>
       </c>
       <c r="Y37">
-        <v>93.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>572.79999999999995</v>
+        <v>-161.4</v>
       </c>
       <c r="AA37">
-        <v>264.2</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>258.7</v>
+        <v>125.9</v>
       </c>
       <c r="D38">
-        <v>990.7</v>
+        <v>496.6</v>
       </c>
       <c r="E38">
-        <v>876.6</v>
+        <v>221.71100000000001</v>
       </c>
       <c r="F38">
-        <v>667.3</v>
+        <v>334</v>
       </c>
       <c r="G38">
-        <v>5627.9</v>
+        <v>3562.2060000000001</v>
       </c>
       <c r="H38">
-        <v>8701.7000000000007</v>
+        <v>4657.1319999999996</v>
       </c>
       <c r="I38">
-        <v>76.3</v>
+        <v>36.494</v>
       </c>
       <c r="J38">
-        <v>796.6</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4823.8999999999996</v>
+        <v>3186.7289999999998</v>
       </c>
       <c r="O38">
-        <v>6132.3</v>
+        <v>3264.942</v>
       </c>
       <c r="P38">
-        <v>986.1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>58.5</v>
+        <v>-90</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>40147</v>
       </c>
       <c r="S38">
-        <v>15700</v>
+        <v>12300</v>
       </c>
       <c r="T38">
-        <v>2569.4</v>
+        <v>1392.19</v>
       </c>
       <c r="U38">
-        <v>600.6</v>
+        <v>225.304</v>
       </c>
       <c r="V38">
-        <v>269.8</v>
+        <v>92.5</v>
       </c>
       <c r="W38">
-        <v>-222.3</v>
+        <v>-112.1</v>
       </c>
       <c r="X38">
-        <v>-231.8</v>
+        <v>-140.69999999999999</v>
       </c>
       <c r="Y38">
-        <v>100.1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>56.5</v>
+        <v>-311.3</v>
       </c>
       <c r="AA38">
-        <v>258.7</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>354.5</v>
+        <v>112</v>
       </c>
       <c r="D39">
-        <v>1142.7</v>
+        <v>507.8</v>
       </c>
       <c r="E39">
-        <v>820.9</v>
+        <v>159.131</v>
       </c>
       <c r="F39">
-        <v>802.4</v>
+        <v>343.3</v>
       </c>
       <c r="G39">
-        <v>6389.4</v>
+        <v>4716.5309999999999</v>
       </c>
       <c r="H39">
-        <v>9466.9</v>
+        <v>5788.0309999999999</v>
       </c>
       <c r="I39">
-        <v>67.7</v>
+        <v>35.081000000000003</v>
       </c>
       <c r="J39">
-        <v>796.7</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>5389.7</v>
+        <v>4312.4229999999998</v>
       </c>
       <c r="O39">
-        <v>6707.1</v>
+        <v>4390.9110000000001</v>
       </c>
       <c r="P39">
-        <v>990.6</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>652.5</v>
+        <v>54</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>40237</v>
       </c>
       <c r="S39">
-        <v>15800</v>
+        <v>12300</v>
       </c>
       <c r="T39">
-        <v>2759.8</v>
+        <v>1397.12</v>
       </c>
       <c r="U39">
-        <v>780</v>
+        <v>279.26100000000002</v>
       </c>
       <c r="V39">
-        <v>488.1</v>
+        <v>223.9</v>
       </c>
       <c r="W39">
-        <v>-222.5</v>
+        <v>-112.2</v>
       </c>
       <c r="X39">
-        <v>365.2</v>
+        <v>986.6</v>
       </c>
       <c r="Y39">
-        <v>105.1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-158.5</v>
+        <v>-378.7</v>
       </c>
       <c r="AA39">
-        <v>354.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>220.7</v>
+        <v>115.5</v>
       </c>
       <c r="D40">
-        <v>915.1</v>
+        <v>496.2</v>
       </c>
       <c r="E40">
-        <v>764.1</v>
+        <v>186.6</v>
       </c>
       <c r="F40">
-        <v>623.4</v>
+        <v>333.1</v>
       </c>
       <c r="G40">
-        <v>5464.6</v>
+        <v>4159.1000000000004</v>
       </c>
       <c r="H40">
-        <v>8550.7000000000007</v>
+        <v>5226.3</v>
       </c>
       <c r="I40">
-        <v>79.400000000000006</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="J40">
-        <v>796.8</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4426.8999999999996</v>
+        <v>3742.2</v>
       </c>
       <c r="O40">
-        <v>5769.3</v>
+        <v>3824.3</v>
       </c>
       <c r="P40">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>-412.7</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>40329</v>
       </c>
       <c r="S40">
-        <v>15600</v>
+        <v>12200</v>
       </c>
       <c r="T40">
-        <v>2781.4</v>
+        <v>1402</v>
       </c>
       <c r="U40">
-        <v>905.2</v>
+        <v>284.3</v>
       </c>
       <c r="V40">
-        <v>388.2</v>
+        <v>107.9</v>
       </c>
       <c r="W40">
-        <v>-222.6</v>
+        <v>-112.2</v>
       </c>
       <c r="X40">
-        <v>-1208.4000000000001</v>
+        <v>-652.4</v>
       </c>
       <c r="Y40">
-        <v>96.9</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>444</v>
+        <v>448.5</v>
       </c>
       <c r="AA40">
-        <v>220.7</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>211.6</v>
+        <v>131.9</v>
       </c>
       <c r="D41">
-        <v>932.2</v>
+        <v>518.29999999999995</v>
       </c>
       <c r="E41">
-        <v>832.3</v>
+        <v>208.6</v>
       </c>
       <c r="F41">
-        <v>625.1</v>
+        <v>358.1</v>
       </c>
       <c r="G41">
-        <v>5340.2</v>
+        <v>3999.9</v>
       </c>
       <c r="H41">
-        <v>8376.9</v>
+        <v>5039</v>
       </c>
       <c r="I41">
-        <v>62</v>
+        <v>34.4</v>
       </c>
       <c r="J41">
-        <v>796.9</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4263.1000000000004</v>
+        <v>3520.2</v>
       </c>
       <c r="O41">
-        <v>5598.3</v>
+        <v>3602</v>
       </c>
       <c r="P41">
-        <v>898.1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-404.1</v>
+        <v>-11.4</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="T41">
-        <v>2778.6</v>
+        <v>1437</v>
       </c>
       <c r="U41">
-        <v>835.7</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="V41">
-        <v>215</v>
+        <v>194.3</v>
       </c>
       <c r="W41">
-        <v>-223.2</v>
+        <v>-112</v>
       </c>
       <c r="X41">
-        <v>-382.8</v>
+        <v>-378.2</v>
       </c>
       <c r="Y41">
-        <v>95.1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-215</v>
+        <v>-408.6</v>
       </c>
       <c r="AA41">
-        <v>211.6</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>133.9</v>
+      </c>
+      <c r="D42">
+        <v>512</v>
+      </c>
+      <c r="E42">
+        <v>224.6</v>
+      </c>
+      <c r="F42">
+        <v>353</v>
+      </c>
+      <c r="G42">
+        <v>4013.9</v>
+      </c>
+      <c r="H42">
+        <v>5022.7</v>
+      </c>
+      <c r="I42">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3485.7</v>
+      </c>
+      <c r="O42">
+        <v>3573.2</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40512</v>
+      </c>
+      <c r="S42">
+        <v>12300</v>
+      </c>
+      <c r="T42">
+        <v>1449.5</v>
+      </c>
+      <c r="U42">
+        <v>233.2</v>
+      </c>
+      <c r="V42">
+        <v>124.9</v>
+      </c>
+      <c r="W42">
+        <v>-112.2</v>
+      </c>
+      <c r="X42">
+        <v>-120.7</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="AA42">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>130.6</v>
+      </c>
+      <c r="D43">
+        <v>531.29999999999995</v>
+      </c>
+      <c r="E43">
+        <v>141.6</v>
+      </c>
+      <c r="F43">
+        <v>364.7</v>
+      </c>
+      <c r="G43">
+        <v>4864.8</v>
+      </c>
+      <c r="H43">
+        <v>5962.8</v>
+      </c>
+      <c r="I43">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4390.5</v>
+      </c>
+      <c r="O43">
+        <v>4494.6000000000004</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2.8</v>
+      </c>
+      <c r="R43">
+        <v>40602</v>
+      </c>
+      <c r="S43">
+        <v>12300</v>
+      </c>
+      <c r="T43">
+        <v>1468.2</v>
+      </c>
+      <c r="U43">
+        <v>236</v>
+      </c>
+      <c r="V43">
+        <v>233.7</v>
+      </c>
+      <c r="W43">
+        <v>-112.2</v>
+      </c>
+      <c r="X43">
+        <v>767</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>130.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40694</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>118.9</v>
+      </c>
+      <c r="D44">
+        <v>522.70000000000005</v>
+      </c>
+      <c r="E44">
+        <v>161.1</v>
+      </c>
+      <c r="F44">
+        <v>354.9</v>
+      </c>
+      <c r="G44">
+        <v>4257.8999999999996</v>
+      </c>
+      <c r="H44">
+        <v>5393.8</v>
+      </c>
+      <c r="I44">
+        <v>45.4</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3788.3</v>
+      </c>
+      <c r="O44">
+        <v>3897.6</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-117</v>
+      </c>
+      <c r="R44">
+        <v>40694</v>
+      </c>
+      <c r="S44">
+        <v>12400</v>
+      </c>
+      <c r="T44">
+        <v>1496.2</v>
+      </c>
+      <c r="U44">
+        <v>119</v>
+      </c>
+      <c r="V44">
+        <v>162.4</v>
+      </c>
+      <c r="W44">
+        <v>-112.4</v>
+      </c>
+      <c r="X44">
+        <v>-739.2</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-153.5</v>
+      </c>
+      <c r="AA44">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>148.9</v>
+      </c>
+      <c r="D45">
+        <v>563.1</v>
+      </c>
+      <c r="E45">
+        <v>197.9</v>
+      </c>
+      <c r="F45">
+        <v>399</v>
+      </c>
+      <c r="G45">
+        <v>3833.4</v>
+      </c>
+      <c r="H45">
+        <v>4991.5</v>
+      </c>
+      <c r="I45">
+        <v>38.5</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3337.1</v>
+      </c>
+      <c r="O45">
+        <v>3452.2</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-5.9</v>
+      </c>
+      <c r="R45">
+        <v>40786</v>
+      </c>
+      <c r="S45">
+        <v>12400</v>
+      </c>
+      <c r="T45">
+        <v>1539.3</v>
+      </c>
+      <c r="U45">
+        <v>113.1</v>
+      </c>
+      <c r="V45">
+        <v>187.2</v>
+      </c>
+      <c r="W45">
+        <v>-112.4</v>
+      </c>
+      <c r="X45">
+        <v>-591.1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>442.4</v>
+      </c>
+      <c r="AA45">
+        <v>148.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40877</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>140.4</v>
+      </c>
+      <c r="D46">
+        <v>545.70000000000005</v>
+      </c>
+      <c r="E46">
+        <v>221.5</v>
+      </c>
+      <c r="F46">
+        <v>383</v>
+      </c>
+      <c r="G46">
+        <v>3740</v>
+      </c>
+      <c r="H46">
+        <v>4932</v>
+      </c>
+      <c r="I46">
+        <v>54.9</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3248.2</v>
+      </c>
+      <c r="O46">
+        <v>3373.3</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-17</v>
+      </c>
+      <c r="R46">
+        <v>40877</v>
+      </c>
+      <c r="S46">
+        <v>12400</v>
+      </c>
+      <c r="T46">
+        <v>1558.7</v>
+      </c>
+      <c r="U46">
+        <v>96.1</v>
+      </c>
+      <c r="V46">
+        <v>110</v>
+      </c>
+      <c r="W46">
+        <v>-116</v>
+      </c>
+      <c r="X46">
+        <v>-163.80000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-482.4</v>
+      </c>
+      <c r="AA46">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40968</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>135.4</v>
+      </c>
+      <c r="D47">
+        <v>569.5</v>
+      </c>
+      <c r="E47">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="F47">
+        <v>395.3</v>
+      </c>
+      <c r="G47">
+        <v>4872.2</v>
+      </c>
+      <c r="H47">
+        <v>6094.9</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>4372.3999999999996</v>
+      </c>
+      <c r="O47">
+        <v>4499.5</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>50.4</v>
+      </c>
+      <c r="R47">
+        <v>40968</v>
+      </c>
+      <c r="S47">
+        <v>12400</v>
+      </c>
+      <c r="T47">
+        <v>1595.4</v>
+      </c>
+      <c r="U47">
+        <v>146.5</v>
+      </c>
+      <c r="V47">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="W47">
+        <v>-115.9</v>
+      </c>
+      <c r="X47">
+        <v>1011</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-863.9</v>
+      </c>
+      <c r="AA47">
+        <v>135.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>123.3</v>
+      </c>
+      <c r="D48">
+        <v>551.5</v>
+      </c>
+      <c r="E48">
+        <v>142.4</v>
+      </c>
+      <c r="F48">
+        <v>382.4</v>
+      </c>
+      <c r="G48">
+        <v>5075.8999999999996</v>
+      </c>
+      <c r="H48">
+        <v>6479.6</v>
+      </c>
+      <c r="I48">
+        <v>69.7</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4745.7</v>
+      </c>
+      <c r="O48">
+        <v>4875.1000000000004</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="R48">
+        <v>41060</v>
+      </c>
+      <c r="S48">
+        <v>12400</v>
+      </c>
+      <c r="T48">
+        <v>1604.5</v>
+      </c>
+      <c r="U48">
+        <v>108.8</v>
+      </c>
+      <c r="V48">
+        <v>144</v>
+      </c>
+      <c r="W48">
+        <v>-116.2</v>
+      </c>
+      <c r="X48">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>540.79999999999995</v>
+      </c>
+      <c r="AA48">
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>153.1</v>
+      </c>
+      <c r="D49">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="E49">
+        <v>153.1</v>
+      </c>
+      <c r="F49">
+        <v>414.7</v>
+      </c>
+      <c r="G49">
+        <v>4300.3999999999996</v>
+      </c>
+      <c r="H49">
+        <v>5710.9</v>
+      </c>
+      <c r="I49">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3919.7</v>
+      </c>
+      <c r="O49">
+        <v>4055.5</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R49">
+        <v>41152</v>
+      </c>
+      <c r="S49">
+        <v>12400</v>
+      </c>
+      <c r="T49">
+        <v>1655.4</v>
+      </c>
+      <c r="U49">
+        <v>149</v>
+      </c>
+      <c r="V49">
+        <v>217.7</v>
+      </c>
+      <c r="W49">
+        <v>-116.4</v>
+      </c>
+      <c r="X49">
+        <v>-949.4</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-362.8</v>
+      </c>
+      <c r="AA49">
+        <v>153.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>147.9</v>
+      </c>
+      <c r="D50">
+        <v>569.4</v>
+      </c>
+      <c r="E50">
+        <v>169.3</v>
+      </c>
+      <c r="F50">
+        <v>405.8</v>
+      </c>
+      <c r="G50">
+        <v>4268.8</v>
+      </c>
+      <c r="H50">
+        <v>5724.2</v>
+      </c>
+      <c r="I50">
+        <v>43.6</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3888.6</v>
+      </c>
+      <c r="O50">
+        <v>4026</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-26.4</v>
+      </c>
+      <c r="R50">
+        <v>41243</v>
+      </c>
+      <c r="S50">
+        <v>12500</v>
+      </c>
+      <c r="T50">
+        <v>1698.2</v>
+      </c>
+      <c r="U50">
+        <v>122.6</v>
+      </c>
+      <c r="V50">
+        <v>108.3</v>
+      </c>
+      <c r="W50">
+        <v>-120</v>
+      </c>
+      <c r="X50">
+        <v>-100.4</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>390.3</v>
+      </c>
+      <c r="AA50">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>144.5</v>
+      </c>
+      <c r="D51">
+        <v>593.29999999999995</v>
+      </c>
+      <c r="E51">
+        <v>125.1</v>
+      </c>
+      <c r="F51">
+        <v>422.1</v>
+      </c>
+      <c r="G51">
+        <v>6319.6</v>
+      </c>
+      <c r="H51">
+        <v>7507.5</v>
+      </c>
+      <c r="I51">
+        <v>47.6</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>5756.5</v>
+      </c>
+      <c r="O51">
+        <v>5901.6</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-22.2</v>
+      </c>
+      <c r="R51">
+        <v>41333</v>
+      </c>
+      <c r="S51">
+        <v>12500</v>
+      </c>
+      <c r="T51">
+        <v>1605.9</v>
+      </c>
+      <c r="U51">
+        <v>100.4</v>
+      </c>
+      <c r="V51">
+        <v>280.39999999999998</v>
+      </c>
+      <c r="W51">
+        <v>-240.3</v>
+      </c>
+      <c r="X51">
+        <v>1610.6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-1890.3</v>
+      </c>
+      <c r="AA51">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>123.5</v>
+      </c>
+      <c r="D52">
+        <v>585.29999999999995</v>
+      </c>
+      <c r="E52">
+        <v>133.4</v>
+      </c>
+      <c r="F52">
+        <v>412.3</v>
+      </c>
+      <c r="G52">
+        <v>4832.6000000000004</v>
+      </c>
+      <c r="H52">
+        <v>6163.7</v>
+      </c>
+      <c r="I52">
+        <v>42.7</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>4268.2</v>
+      </c>
+      <c r="O52">
+        <v>4390</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>6.9</v>
+      </c>
+      <c r="R52">
+        <v>41425</v>
+      </c>
+      <c r="S52">
+        <v>12400</v>
+      </c>
+      <c r="T52">
+        <v>1773.7</v>
+      </c>
+      <c r="U52">
+        <v>107.3</v>
+      </c>
+      <c r="V52">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-1419.3</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1150.2</v>
+      </c>
+      <c r="AA52">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41517</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="D53">
+        <v>613.1</v>
+      </c>
+      <c r="E53">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="F53">
+        <v>443.2</v>
+      </c>
+      <c r="G53">
+        <v>4698.3</v>
+      </c>
+      <c r="H53">
+        <v>6031.2</v>
+      </c>
+      <c r="I53">
+        <v>40.4</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4150.3999999999996</v>
+      </c>
+      <c r="O53">
+        <v>4282.8</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>4.3</v>
+      </c>
+      <c r="R53">
+        <v>41517</v>
+      </c>
+      <c r="S53">
+        <v>12500</v>
+      </c>
+      <c r="T53">
+        <v>1748.4</v>
+      </c>
+      <c r="U53">
+        <v>111.6</v>
+      </c>
+      <c r="V53">
+        <v>266.7</v>
+      </c>
+      <c r="W53">
+        <v>-127.9</v>
+      </c>
+      <c r="X53">
+        <v>-293.2</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="D54">
+        <v>616.4</v>
+      </c>
+      <c r="E54">
+        <v>178.8</v>
+      </c>
+      <c r="F54">
+        <v>442.8</v>
+      </c>
+      <c r="G54">
+        <v>4663.8</v>
+      </c>
+      <c r="H54">
+        <v>6019.4</v>
+      </c>
+      <c r="I54">
+        <v>36.4</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4119.1000000000004</v>
+      </c>
+      <c r="O54">
+        <v>4259</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>101.4</v>
+      </c>
+      <c r="R54">
+        <v>41608</v>
+      </c>
+      <c r="S54">
+        <v>12600</v>
+      </c>
+      <c r="T54">
+        <v>1760.4</v>
+      </c>
+      <c r="U54">
+        <v>213</v>
+      </c>
+      <c r="V54">
+        <v>133.5</v>
+      </c>
+      <c r="W54">
+        <v>-127.8</v>
+      </c>
+      <c r="X54">
+        <v>-195.6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>490</v>
+      </c>
+      <c r="AA54">
+        <v>158.69999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>160.1</v>
+      </c>
+      <c r="D55">
+        <v>650.4</v>
+      </c>
+      <c r="E55">
+        <v>129.6</v>
+      </c>
+      <c r="F55">
+        <v>459.4</v>
+      </c>
+      <c r="G55">
+        <v>5719.3</v>
+      </c>
+      <c r="H55">
+        <v>7069.4</v>
+      </c>
+      <c r="I55">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>5138.8999999999996</v>
+      </c>
+      <c r="O55">
+        <v>5281.2</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>58.3</v>
+      </c>
+      <c r="R55">
+        <v>41698</v>
+      </c>
+      <c r="S55">
+        <v>12700</v>
+      </c>
+      <c r="T55">
+        <v>1788.2</v>
+      </c>
+      <c r="U55">
+        <v>271.3</v>
+      </c>
+      <c r="V55">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-127.7</v>
+      </c>
+      <c r="X55">
+        <v>841.2</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-259</v>
+      </c>
+      <c r="AA55">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>145.9</v>
+      </c>
+      <c r="D56">
+        <v>639</v>
+      </c>
+      <c r="E56">
+        <v>149.4</v>
+      </c>
+      <c r="F56">
+        <v>441</v>
+      </c>
+      <c r="G56">
+        <v>5002.5</v>
+      </c>
+      <c r="H56">
+        <v>6370.1</v>
+      </c>
+      <c r="I56">
+        <v>48.8</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4438.8999999999996</v>
+      </c>
+      <c r="O56">
+        <v>4593.1000000000004</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-118.8</v>
+      </c>
+      <c r="R56">
+        <v>41790</v>
+      </c>
+      <c r="S56">
+        <v>12700</v>
+      </c>
+      <c r="T56">
+        <v>1777</v>
+      </c>
+      <c r="U56">
+        <v>152.5</v>
+      </c>
+      <c r="V56">
+        <v>175.1</v>
+      </c>
+      <c r="W56">
+        <v>-127.2</v>
+      </c>
+      <c r="X56">
+        <v>-872</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-324.5</v>
+      </c>
+      <c r="AA56">
+        <v>145.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>171.3</v>
+      </c>
+      <c r="D57">
+        <v>666.8</v>
+      </c>
+      <c r="E57">
+        <v>168.9</v>
+      </c>
+      <c r="F57">
+        <v>472.5</v>
+      </c>
+      <c r="G57">
+        <v>4872</v>
+      </c>
+      <c r="H57">
+        <v>6286.6</v>
+      </c>
+      <c r="I57">
+        <v>40.1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4344</v>
+      </c>
+      <c r="O57">
+        <v>4501</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>310.10000000000002</v>
+      </c>
+      <c r="R57">
+        <v>41882</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1785.6</v>
+      </c>
+      <c r="U57">
+        <v>462.6</v>
+      </c>
+      <c r="V57">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="W57">
+        <v>-138.30000000000001</v>
+      </c>
+      <c r="X57">
+        <v>-311.89999999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>612.70000000000005</v>
+      </c>
+      <c r="AA57">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>173</v>
+      </c>
+      <c r="D58">
+        <v>676.3</v>
+      </c>
+      <c r="E58">
+        <v>205.6</v>
+      </c>
+      <c r="F58">
+        <v>477.2</v>
+      </c>
+      <c r="G58">
+        <v>4859.8999999999996</v>
+      </c>
+      <c r="H58">
+        <v>6274.5</v>
+      </c>
+      <c r="I58">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>4279.3</v>
+      </c>
+      <c r="O58">
+        <v>4440.2</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-322.2</v>
+      </c>
+      <c r="R58">
+        <v>41973</v>
+      </c>
+      <c r="S58">
+        <v>13000</v>
+      </c>
+      <c r="T58">
+        <v>1834.3</v>
+      </c>
+      <c r="U58">
+        <v>140.4</v>
+      </c>
+      <c r="V58">
+        <v>141.6</v>
+      </c>
+      <c r="W58">
+        <v>-137.9</v>
+      </c>
+      <c r="X58">
+        <v>-159.6</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-539.5</v>
+      </c>
+      <c r="AA58">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>169.4</v>
+      </c>
+      <c r="D59">
+        <v>704.3</v>
+      </c>
+      <c r="E59">
+        <v>148.4</v>
+      </c>
+      <c r="F59">
+        <v>493.3</v>
+      </c>
+      <c r="G59">
+        <v>5957.4</v>
+      </c>
+      <c r="H59">
+        <v>7344.2</v>
+      </c>
+      <c r="I59">
+        <v>40.1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>5348</v>
+      </c>
+      <c r="O59">
+        <v>5472.2</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>124.9</v>
+      </c>
+      <c r="R59">
+        <v>42063</v>
+      </c>
+      <c r="S59">
+        <v>13100</v>
+      </c>
+      <c r="T59">
+        <v>1872</v>
+      </c>
+      <c r="U59">
+        <v>265.3</v>
+      </c>
+      <c r="V59">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="W59">
+        <v>-138.19999999999999</v>
+      </c>
+      <c r="X59">
+        <v>918.7</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>79.5</v>
+      </c>
+      <c r="AA59">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="D60">
+        <v>692.2</v>
+      </c>
+      <c r="E60">
+        <v>176.6</v>
+      </c>
+      <c r="F60">
+        <v>488.6</v>
+      </c>
+      <c r="G60">
+        <v>5088.2</v>
+      </c>
+      <c r="H60">
+        <v>6467.5</v>
+      </c>
+      <c r="I60">
+        <v>51.7</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4573</v>
+      </c>
+      <c r="O60">
+        <v>4682</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-95.3</v>
+      </c>
+      <c r="R60">
+        <v>42155</v>
+      </c>
+      <c r="S60">
+        <v>13000</v>
+      </c>
+      <c r="T60">
+        <v>1785.5</v>
+      </c>
+      <c r="U60">
+        <v>170</v>
+      </c>
+      <c r="V60">
+        <v>202.4</v>
+      </c>
+      <c r="W60">
+        <v>-137.4</v>
+      </c>
+      <c r="X60">
+        <v>-1039.9000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-453.6</v>
+      </c>
+      <c r="AA60">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>209.1</v>
+      </c>
+      <c r="D61">
+        <v>723</v>
+      </c>
+      <c r="E61">
+        <v>206.6</v>
+      </c>
+      <c r="F61">
+        <v>517.29999999999995</v>
+      </c>
+      <c r="G61">
+        <v>4588.2</v>
+      </c>
+      <c r="H61">
+        <v>5983</v>
+      </c>
+      <c r="I61">
+        <v>43</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>4046.4</v>
+      </c>
+      <c r="O61">
+        <v>4192.2</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="R61">
+        <v>42247</v>
+      </c>
+      <c r="S61">
+        <v>12900</v>
+      </c>
+      <c r="T61">
+        <v>1790.8</v>
+      </c>
+      <c r="U61">
+        <v>455.9</v>
+      </c>
+      <c r="V61">
+        <v>278.3</v>
+      </c>
+      <c r="W61">
+        <v>-151.9</v>
+      </c>
+      <c r="X61">
+        <v>-752.3</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>683.9</v>
+      </c>
+      <c r="AA61">
+        <v>209.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>189.2</v>
+      </c>
+      <c r="D62">
+        <v>722.4</v>
+      </c>
+      <c r="E62">
+        <v>241.1</v>
+      </c>
+      <c r="F62">
+        <v>517.20000000000005</v>
+      </c>
+      <c r="G62">
+        <v>4602.5</v>
+      </c>
+      <c r="H62">
+        <v>6016.8</v>
+      </c>
+      <c r="I62">
+        <v>47.4</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4009.9</v>
+      </c>
+      <c r="O62">
+        <v>4158.5</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-43.6</v>
+      </c>
+      <c r="R62">
+        <v>42338</v>
+      </c>
+      <c r="S62">
+        <v>13100</v>
+      </c>
+      <c r="T62">
+        <v>1858.3</v>
+      </c>
+      <c r="U62">
+        <v>412.3</v>
+      </c>
+      <c r="V62">
+        <v>141.6</v>
+      </c>
+      <c r="W62">
+        <v>-151.69999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-174</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-23.7</v>
+      </c>
+      <c r="AA62">
+        <v>189.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>180.4</v>
+      </c>
+      <c r="D63">
+        <v>752.6</v>
+      </c>
+      <c r="E63">
+        <v>353.4</v>
+      </c>
+      <c r="F63">
+        <v>526.70000000000005</v>
+      </c>
+      <c r="G63">
+        <v>5503.6</v>
+      </c>
+      <c r="H63">
+        <v>7067.5</v>
+      </c>
+      <c r="I63">
+        <v>55.8</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>5039.2</v>
+      </c>
+      <c r="O63">
+        <v>5193.3999999999996</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-159.19999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42429</v>
+      </c>
+      <c r="S63">
+        <v>13400</v>
+      </c>
+      <c r="T63">
+        <v>1874.1</v>
+      </c>
+      <c r="U63">
+        <v>253.1</v>
+      </c>
+      <c r="V63">
+        <v>371.3</v>
+      </c>
+      <c r="W63">
+        <v>-151.4</v>
+      </c>
+      <c r="X63">
+        <v>781.8</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-57.5</v>
+      </c>
+      <c r="AA63">
+        <v>180.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>178.1</v>
+      </c>
+      <c r="D64">
+        <v>753.9</v>
+      </c>
+      <c r="E64">
+        <v>408.6</v>
+      </c>
+      <c r="F64">
+        <v>533.6</v>
+      </c>
+      <c r="G64">
+        <v>4863.6000000000004</v>
+      </c>
+      <c r="H64">
+        <v>6440.8</v>
+      </c>
+      <c r="I64">
+        <v>56.7</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4365.8999999999996</v>
+      </c>
+      <c r="O64">
+        <v>4529.1000000000004</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-121.6</v>
+      </c>
+      <c r="R64">
+        <v>42521</v>
+      </c>
+      <c r="S64">
+        <v>13500</v>
+      </c>
+      <c r="T64">
+        <v>1911.7</v>
+      </c>
+      <c r="U64">
+        <v>131.5</v>
+      </c>
+      <c r="V64">
+        <v>227</v>
+      </c>
+      <c r="W64">
+        <v>-151.5</v>
+      </c>
+      <c r="X64">
+        <v>-849.1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-1190.5999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>217.4</v>
+      </c>
+      <c r="D65">
+        <v>785.5</v>
+      </c>
+      <c r="E65">
+        <v>485.6</v>
+      </c>
+      <c r="F65">
+        <v>560.4</v>
+      </c>
+      <c r="G65">
+        <v>4521</v>
+      </c>
+      <c r="H65">
+        <v>6096.9</v>
+      </c>
+      <c r="I65">
+        <v>51.2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>51.3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3913.2</v>
+      </c>
+      <c r="O65">
+        <v>4108.8</v>
+      </c>
+      <c r="P65">
+        <v>51.3</v>
+      </c>
+      <c r="Q65">
+        <v>-1.5</v>
+      </c>
+      <c r="R65">
+        <v>42613</v>
+      </c>
+      <c r="S65">
+        <v>13700</v>
+      </c>
+      <c r="T65">
+        <v>1988.1</v>
+      </c>
+      <c r="U65">
+        <v>130</v>
+      </c>
+      <c r="V65">
+        <v>294.7</v>
+      </c>
+      <c r="W65">
+        <v>-166.3</v>
+      </c>
+      <c r="X65">
+        <v>-676.5</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>217.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>202.1</v>
+      </c>
+      <c r="D66">
+        <v>771.4</v>
+      </c>
+      <c r="E66">
+        <v>528.9</v>
+      </c>
+      <c r="F66">
+        <v>545.1</v>
+      </c>
+      <c r="G66">
+        <v>4215.7</v>
+      </c>
+      <c r="H66">
+        <v>5776.1</v>
+      </c>
+      <c r="I66">
+        <v>48.6</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>103.1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3784.1</v>
+      </c>
+      <c r="O66">
+        <v>3960.5</v>
+      </c>
+      <c r="P66">
+        <v>103.1</v>
+      </c>
+      <c r="Q66">
+        <v>35</v>
+      </c>
+      <c r="R66">
+        <v>42704</v>
+      </c>
+      <c r="S66">
+        <v>14000</v>
+      </c>
+      <c r="T66">
+        <v>1815.6</v>
+      </c>
+      <c r="U66">
+        <v>165</v>
+      </c>
+      <c r="V66">
+        <v>118.7</v>
+      </c>
+      <c r="W66">
+        <v>-165.2</v>
+      </c>
+      <c r="X66">
+        <v>-401.3</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>391.1</v>
+      </c>
+      <c r="AA66">
+        <v>202.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>202.5</v>
+      </c>
+      <c r="D67">
+        <v>795.8</v>
+      </c>
+      <c r="E67">
+        <v>429.9</v>
+      </c>
+      <c r="F67">
+        <v>559</v>
+      </c>
+      <c r="G67">
+        <v>5751.8</v>
+      </c>
+      <c r="H67">
+        <v>7310.3</v>
+      </c>
+      <c r="I67">
+        <v>55.9</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>55.4</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>5273.7</v>
+      </c>
+      <c r="O67">
+        <v>5413.6</v>
+      </c>
+      <c r="P67">
+        <v>55.4</v>
+      </c>
+      <c r="Q67">
+        <v>24.9</v>
+      </c>
+      <c r="R67">
+        <v>42794</v>
+      </c>
+      <c r="S67">
+        <v>13900</v>
+      </c>
+      <c r="T67">
+        <v>1896.7</v>
+      </c>
+      <c r="U67">
+        <v>189.9</v>
+      </c>
+      <c r="V67">
+        <v>355.9</v>
+      </c>
+      <c r="W67">
+        <v>-165.4</v>
+      </c>
+      <c r="X67">
+        <v>1314</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-946.5</v>
+      </c>
+      <c r="AA67">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>195.3</v>
+      </c>
+      <c r="D68">
+        <v>798.6</v>
+      </c>
+      <c r="E68">
+        <v>507.5</v>
+      </c>
+      <c r="F68">
+        <v>567.20000000000005</v>
+      </c>
+      <c r="G68">
+        <v>5272</v>
+      </c>
+      <c r="H68">
+        <v>6833.7</v>
+      </c>
+      <c r="I68">
+        <v>57.2</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4725.1000000000004</v>
+      </c>
+      <c r="O68">
+        <v>4878.3999999999996</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>-5.3</v>
+      </c>
+      <c r="R68">
+        <v>42886</v>
+      </c>
+      <c r="S68">
+        <v>13700</v>
+      </c>
+      <c r="T68">
+        <v>1955.3</v>
+      </c>
+      <c r="U68">
+        <v>184.6</v>
+      </c>
+      <c r="V68">
+        <v>191.1</v>
+      </c>
+      <c r="W68">
+        <v>-165.4</v>
+      </c>
+      <c r="X68">
+        <v>-718.9</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-147.19999999999999</v>
+      </c>
+      <c r="AA68">
+        <v>195.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>210.4</v>
+      </c>
+      <c r="D69">
+        <v>792.9</v>
+      </c>
+      <c r="E69">
+        <v>538.6</v>
+      </c>
+      <c r="F69">
+        <v>560.9</v>
+      </c>
+      <c r="G69">
+        <v>5973.5</v>
+      </c>
+      <c r="H69">
+        <v>7619.5</v>
+      </c>
+      <c r="I69">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>57.2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>5455.7</v>
+      </c>
+      <c r="O69">
+        <v>5675.7</v>
+      </c>
+      <c r="P69">
+        <v>57.2</v>
+      </c>
+      <c r="Q69">
+        <v>49.8</v>
+      </c>
+      <c r="R69">
+        <v>42978</v>
+      </c>
+      <c r="S69">
+        <v>13700</v>
+      </c>
+      <c r="T69">
+        <v>1943.8</v>
+      </c>
+      <c r="U69">
+        <v>234.4</v>
+      </c>
+      <c r="V69">
+        <v>343.6</v>
+      </c>
+      <c r="W69">
+        <v>-179.1</v>
+      </c>
+      <c r="X69">
+        <v>417.2</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>245.3</v>
+      </c>
+      <c r="AA69">
+        <v>210.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>198.8</v>
+      </c>
+      <c r="D70">
+        <v>803</v>
+      </c>
+      <c r="E70">
+        <v>595.20000000000005</v>
+      </c>
+      <c r="F70">
+        <v>554.4</v>
+      </c>
+      <c r="G70">
+        <v>5993</v>
+      </c>
+      <c r="H70">
+        <v>7684.6</v>
+      </c>
+      <c r="I70">
+        <v>58.4</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>133.4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5501.7</v>
+      </c>
+      <c r="O70">
+        <v>5715.7</v>
+      </c>
+      <c r="P70">
+        <v>133.4</v>
+      </c>
+      <c r="Q70">
+        <v>22.8</v>
+      </c>
+      <c r="R70">
+        <v>43069</v>
+      </c>
+      <c r="S70">
+        <v>14000</v>
+      </c>
+      <c r="T70">
+        <v>1968.9</v>
+      </c>
+      <c r="U70">
+        <v>257.2</v>
+      </c>
+      <c r="V70">
+        <v>175.8</v>
+      </c>
+      <c r="W70">
+        <v>-179.8</v>
+      </c>
+      <c r="X70">
+        <v>-112.9</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>139.1</v>
+      </c>
+      <c r="AA70">
+        <v>198.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>367.2</v>
+      </c>
+      <c r="D71">
+        <v>936.1</v>
+      </c>
+      <c r="E71">
+        <v>550.5</v>
+      </c>
+      <c r="F71">
+        <v>663.9</v>
+      </c>
+      <c r="G71">
+        <v>5048.7</v>
+      </c>
+      <c r="H71">
+        <v>6842.8</v>
+      </c>
+      <c r="I71">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>57.7</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4623.7</v>
+      </c>
+      <c r="O71">
+        <v>4797.3</v>
+      </c>
+      <c r="P71">
+        <v>57.7</v>
+      </c>
+      <c r="Q71">
+        <v>475.8</v>
+      </c>
+      <c r="R71">
+        <v>43159</v>
+      </c>
+      <c r="S71">
+        <v>14000</v>
+      </c>
+      <c r="T71">
+        <v>2045.5</v>
+      </c>
+      <c r="U71">
+        <v>323.89999999999998</v>
+      </c>
+      <c r="V71">
+        <v>469.5</v>
+      </c>
+      <c r="W71">
+        <v>-179.8</v>
+      </c>
+      <c r="X71">
+        <v>-1178.3</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>356.3</v>
+      </c>
+      <c r="AA71">
+        <v>367.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>217.7</v>
+      </c>
+      <c r="D72">
+        <v>845.7</v>
+      </c>
+      <c r="E72">
+        <v>492.4</v>
+      </c>
+      <c r="F72">
+        <v>580.29999999999995</v>
+      </c>
+      <c r="G72">
+        <v>5893.6</v>
+      </c>
+      <c r="H72">
+        <v>7915.4</v>
+      </c>
+      <c r="I72">
+        <v>73.7</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5296.7</v>
+      </c>
+      <c r="O72">
+        <v>5558.6</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1302.7</v>
+      </c>
+      <c r="R72">
+        <v>43251</v>
+      </c>
+      <c r="S72">
+        <v>14300</v>
+      </c>
+      <c r="T72">
+        <v>2356.8000000000002</v>
+      </c>
+      <c r="U72">
+        <v>358.2</v>
+      </c>
+      <c r="V72">
+        <v>287.5</v>
+      </c>
+      <c r="W72">
+        <v>-201</v>
+      </c>
+      <c r="X72">
+        <v>450.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>632</v>
+      </c>
+      <c r="AA72">
+        <v>217.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>243.6</v>
+      </c>
+      <c r="D73">
+        <v>862.8</v>
+      </c>
+      <c r="E73">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="F73">
+        <v>597.29999999999995</v>
+      </c>
+      <c r="G73">
+        <v>5076.2</v>
+      </c>
+      <c r="H73">
+        <v>7050</v>
+      </c>
+      <c r="I73">
+        <v>62.6</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>56.7</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4397.3999999999996</v>
+      </c>
+      <c r="O73">
+        <v>4663</v>
+      </c>
+      <c r="P73">
+        <v>56.7</v>
+      </c>
+      <c r="Q73">
+        <v>-680.6</v>
+      </c>
+      <c r="R73">
+        <v>43343</v>
+      </c>
+      <c r="S73">
+        <v>14500</v>
+      </c>
+      <c r="T73">
+        <v>2387</v>
+      </c>
+      <c r="U73">
+        <v>440.1</v>
+      </c>
+      <c r="V73">
+        <v>273.7</v>
+      </c>
+      <c r="W73">
+        <v>-201.4</v>
+      </c>
+      <c r="X73">
+        <v>-1110.3</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>181.2</v>
+      </c>
+      <c r="AA73">
+        <v>243.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>235.8</v>
+      </c>
+      <c r="D74">
+        <v>858.9</v>
+      </c>
+      <c r="E74">
+        <v>562.6</v>
+      </c>
+      <c r="F74">
+        <v>594</v>
+      </c>
+      <c r="G74">
+        <v>5290</v>
+      </c>
+      <c r="H74">
+        <v>7002.4</v>
+      </c>
+      <c r="I74">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>57.3</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4306.8</v>
+      </c>
+      <c r="O74">
+        <v>4577.8999999999996</v>
+      </c>
+      <c r="P74">
+        <v>57.3</v>
+      </c>
+      <c r="Q74">
+        <v>-152.1</v>
+      </c>
+      <c r="R74">
+        <v>43434</v>
+      </c>
+      <c r="S74">
+        <v>14600</v>
+      </c>
+      <c r="T74">
+        <v>2424.5</v>
+      </c>
+      <c r="U74">
+        <v>510.6</v>
+      </c>
+      <c r="V74">
+        <v>223.5</v>
+      </c>
+      <c r="W74">
+        <v>-201.3</v>
+      </c>
+      <c r="X74">
+        <v>-273.3</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-65.7</v>
+      </c>
+      <c r="AA74">
+        <v>235.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="D75">
+        <v>1070.4000000000001</v>
+      </c>
+      <c r="E75">
+        <v>821</v>
+      </c>
+      <c r="F75">
+        <v>745.1</v>
+      </c>
+      <c r="G75">
+        <v>7292</v>
+      </c>
+      <c r="H75">
+        <v>10363</v>
+      </c>
+      <c r="I75">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="J75">
+        <v>800</v>
+      </c>
+      <c r="K75">
+        <v>53.6</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>6549.7</v>
+      </c>
+      <c r="O75">
+        <v>7765</v>
+      </c>
+      <c r="P75">
+        <v>853.6</v>
+      </c>
+      <c r="Q75">
+        <v>2237.6999999999998</v>
+      </c>
+      <c r="R75">
+        <v>43524</v>
+      </c>
+      <c r="S75">
+        <v>15700</v>
+      </c>
+      <c r="T75">
+        <v>2598</v>
+      </c>
+      <c r="U75">
+        <v>696.4</v>
+      </c>
+      <c r="V75">
+        <v>525.6</v>
+      </c>
+      <c r="W75">
+        <v>-201.2</v>
+      </c>
+      <c r="X75">
+        <v>2304.4</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>421.5</v>
+      </c>
+      <c r="AA75">
+        <v>324.60000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>230.4</v>
+      </c>
+      <c r="D76">
+        <v>980.4</v>
+      </c>
+      <c r="E76">
+        <v>826.8</v>
+      </c>
+      <c r="F76">
+        <v>658.3</v>
+      </c>
+      <c r="G76">
+        <v>5677.7</v>
+      </c>
+      <c r="H76">
+        <v>8676</v>
+      </c>
+      <c r="I76">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="J76">
+        <v>796.4</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4845</v>
+      </c>
+      <c r="O76">
+        <v>6056.5</v>
+      </c>
+      <c r="P76">
+        <v>796.4</v>
+      </c>
+      <c r="Q76">
+        <v>-2770.3</v>
+      </c>
+      <c r="R76">
+        <v>43616</v>
+      </c>
+      <c r="S76">
+        <v>15300</v>
+      </c>
+      <c r="T76">
+        <v>2619.5</v>
+      </c>
+      <c r="U76">
+        <v>673.6</v>
+      </c>
+      <c r="V76">
+        <v>248.7</v>
+      </c>
+      <c r="W76">
+        <v>-222.9</v>
+      </c>
+      <c r="X76">
+        <v>-1929.3</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-1044</v>
+      </c>
+      <c r="AA76">
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>264.2</v>
+      </c>
+      <c r="D77">
+        <v>992</v>
+      </c>
+      <c r="E77">
+        <v>834.3</v>
+      </c>
+      <c r="F77">
+        <v>666.6</v>
+      </c>
+      <c r="G77">
+        <v>5555.9</v>
+      </c>
+      <c r="H77">
+        <v>8638.2000000000007</v>
+      </c>
+      <c r="I77">
+        <v>61.7</v>
+      </c>
+      <c r="J77">
+        <v>796.5</v>
+      </c>
+      <c r="K77">
+        <v>56.5</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4823.5</v>
+      </c>
+      <c r="O77">
+        <v>6118.9</v>
+      </c>
+      <c r="P77">
+        <v>983.8</v>
+      </c>
+      <c r="Q77">
+        <v>426.3</v>
+      </c>
+      <c r="R77">
+        <v>43708</v>
+      </c>
+      <c r="S77">
+        <v>15600</v>
+      </c>
+      <c r="T77">
+        <v>2519.3000000000002</v>
+      </c>
+      <c r="U77">
+        <v>586.4</v>
+      </c>
+      <c r="V77">
+        <v>294.8</v>
+      </c>
+      <c r="W77">
+        <v>-222</v>
+      </c>
+      <c r="X77">
+        <v>-413.2</v>
+      </c>
+      <c r="Y77">
+        <v>93.8</v>
+      </c>
+      <c r="Z77">
+        <v>572.79999999999995</v>
+      </c>
+      <c r="AA77">
+        <v>264.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>258.7</v>
+      </c>
+      <c r="D78">
+        <v>990.7</v>
+      </c>
+      <c r="E78">
+        <v>876.6</v>
+      </c>
+      <c r="F78">
+        <v>667.3</v>
+      </c>
+      <c r="G78">
+        <v>5627.9</v>
+      </c>
+      <c r="H78">
+        <v>8701.7000000000007</v>
+      </c>
+      <c r="I78">
+        <v>76.3</v>
+      </c>
+      <c r="J78">
+        <v>796.6</v>
+      </c>
+      <c r="K78">
+        <v>51.3</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4823.8999999999996</v>
+      </c>
+      <c r="O78">
+        <v>6132.3</v>
+      </c>
+      <c r="P78">
+        <v>986.1</v>
+      </c>
+      <c r="Q78">
+        <v>58.5</v>
+      </c>
+      <c r="R78">
+        <v>43799</v>
+      </c>
+      <c r="S78">
+        <v>15700</v>
+      </c>
+      <c r="T78">
+        <v>2569.4</v>
+      </c>
+      <c r="U78">
+        <v>600.6</v>
+      </c>
+      <c r="V78">
+        <v>269.8</v>
+      </c>
+      <c r="W78">
+        <v>-222.3</v>
+      </c>
+      <c r="X78">
+        <v>-231.8</v>
+      </c>
+      <c r="Y78">
+        <v>100.1</v>
+      </c>
+      <c r="Z78">
+        <v>56.5</v>
+      </c>
+      <c r="AA78">
+        <v>258.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>354.5</v>
+      </c>
+      <c r="D79">
+        <v>1142.7</v>
+      </c>
+      <c r="E79">
+        <v>820.9</v>
+      </c>
+      <c r="F79">
+        <v>802.4</v>
+      </c>
+      <c r="G79">
+        <v>6389.4</v>
+      </c>
+      <c r="H79">
+        <v>9466.9</v>
+      </c>
+      <c r="I79">
+        <v>67.7</v>
+      </c>
+      <c r="J79">
+        <v>796.7</v>
+      </c>
+      <c r="K79">
+        <v>51.2</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>5389.7</v>
+      </c>
+      <c r="O79">
+        <v>6707.1</v>
+      </c>
+      <c r="P79">
+        <v>990.6</v>
+      </c>
+      <c r="Q79">
+        <v>652.5</v>
+      </c>
+      <c r="R79">
+        <v>43890</v>
+      </c>
+      <c r="S79">
+        <v>15800</v>
+      </c>
+      <c r="T79">
+        <v>2759.8</v>
+      </c>
+      <c r="U79">
+        <v>780</v>
+      </c>
+      <c r="V79">
+        <v>488.1</v>
+      </c>
+      <c r="W79">
+        <v>-222.5</v>
+      </c>
+      <c r="X79">
+        <v>365.2</v>
+      </c>
+      <c r="Y79">
+        <v>105.1</v>
+      </c>
+      <c r="Z79">
+        <v>-158.5</v>
+      </c>
+      <c r="AA79">
+        <v>354.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>220.7</v>
+      </c>
+      <c r="D80">
+        <v>915.1</v>
+      </c>
+      <c r="E80">
+        <v>764.1</v>
+      </c>
+      <c r="F80">
+        <v>623.4</v>
+      </c>
+      <c r="G80">
+        <v>5464.6</v>
+      </c>
+      <c r="H80">
+        <v>8550.7000000000007</v>
+      </c>
+      <c r="I80">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="J80">
+        <v>796.8</v>
+      </c>
+      <c r="K80">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4426.8999999999996</v>
+      </c>
+      <c r="O80">
+        <v>5769.3</v>
+      </c>
+      <c r="P80">
+        <v>936</v>
+      </c>
+      <c r="Q80">
+        <v>-412.7</v>
+      </c>
+      <c r="R80">
+        <v>43982</v>
+      </c>
+      <c r="S80">
+        <v>15600</v>
+      </c>
+      <c r="T80">
+        <v>2781.4</v>
+      </c>
+      <c r="U80">
+        <v>905.2</v>
+      </c>
+      <c r="V80">
+        <v>388.2</v>
+      </c>
+      <c r="W80">
+        <v>-222.6</v>
+      </c>
+      <c r="X80">
+        <v>-1208.4000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>96.9</v>
+      </c>
+      <c r="Z80">
+        <v>444</v>
+      </c>
+      <c r="AA80">
+        <v>220.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>211.6</v>
+      </c>
+      <c r="D81">
+        <v>932.2</v>
+      </c>
+      <c r="E81">
+        <v>832.3</v>
+      </c>
+      <c r="F81">
+        <v>625.1</v>
+      </c>
+      <c r="G81">
+        <v>5340.2</v>
+      </c>
+      <c r="H81">
+        <v>8376.9</v>
+      </c>
+      <c r="I81">
+        <v>62</v>
+      </c>
+      <c r="J81">
+        <v>796.9</v>
+      </c>
+      <c r="K81">
+        <v>6.1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4263.1000000000004</v>
+      </c>
+      <c r="O81">
+        <v>5598.3</v>
+      </c>
+      <c r="P81">
+        <v>898.1</v>
+      </c>
+      <c r="Q81">
+        <v>-404.1</v>
+      </c>
+      <c r="R81">
+        <v>44074</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2778.6</v>
+      </c>
+      <c r="U81">
+        <v>835.7</v>
+      </c>
+      <c r="V81">
+        <v>215</v>
+      </c>
+      <c r="W81">
+        <v>-223.2</v>
+      </c>
+      <c r="X81">
+        <v>-382.8</v>
+      </c>
+      <c r="Y81">
+        <v>95.1</v>
+      </c>
+      <c r="Z81">
+        <v>-215</v>
+      </c>
+      <c r="AA81">
+        <v>211.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>272.39999999999998</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>983.7</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>967</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>663.8</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5592.4</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>8615.4</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>70.400000000000006</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>797</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>6.9</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>4380</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5725.7</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>896.1</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-118</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44165</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>2889.7</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>693.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>215.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-223.5</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-79.599999999999994</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>92.2</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-223.2</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>272.39999999999998</v>
       </c>
     </row>
